--- a/Code/Results/Cases/Case_5_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.748331888622317</v>
+        <v>3.361961287415909</v>
       </c>
       <c r="C2">
-        <v>1.047438009734663</v>
+        <v>0.4848105480254787</v>
       </c>
       <c r="D2">
-        <v>0.1314876778749294</v>
+        <v>0.1241804865131115</v>
       </c>
       <c r="E2">
-        <v>0.3891314918130604</v>
+        <v>0.01604476148155487</v>
       </c>
       <c r="F2">
-        <v>6.566039059261755</v>
+        <v>7.182927734634944</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.404151825734445</v>
+        <v>0.1295737520076656</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.179396620463379</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.199869816730882</v>
+        <v>2.960348133187779</v>
       </c>
       <c r="C3">
-        <v>0.8919761345465815</v>
+        <v>0.4141283204426145</v>
       </c>
       <c r="D3">
-        <v>0.1158934763996484</v>
+        <v>0.1076379472651894</v>
       </c>
       <c r="E3">
-        <v>0.3310075820608631</v>
+        <v>0.01607887550949638</v>
       </c>
       <c r="F3">
-        <v>5.709283262800142</v>
+        <v>6.510791015079917</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.3450260857242498</v>
+        <v>0.123319004711071</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1634887643288394</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.873404256306969</v>
+        <v>2.722383974040724</v>
       </c>
       <c r="C4">
-        <v>0.7995441512081811</v>
+        <v>0.3719633482375002</v>
       </c>
       <c r="D4">
-        <v>0.1066899757883348</v>
+        <v>0.09773279267037083</v>
       </c>
       <c r="E4">
-        <v>0.2965822360476551</v>
+        <v>0.01610745519604728</v>
       </c>
       <c r="F4">
-        <v>5.201593924819434</v>
+        <v>6.110498511309089</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.3100072749188314</v>
+        <v>0.119610487617237</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1542181908714326</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.742525693060486</v>
+        <v>2.627327599235457</v>
       </c>
       <c r="C5">
-        <v>0.7625027692276092</v>
+        <v>0.3550450166125358</v>
       </c>
       <c r="D5">
-        <v>0.1030163941695506</v>
+        <v>0.09374927309536929</v>
       </c>
       <c r="E5">
-        <v>0.2828170113288166</v>
+        <v>0.01612091008076977</v>
       </c>
       <c r="F5">
-        <v>4.998587973962458</v>
+        <v>5.950084054940106</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.2960058237149568</v>
+        <v>0.1181280752779443</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1505536446467985</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.720912363775938</v>
+        <v>2.611652393911129</v>
       </c>
       <c r="C6">
-        <v>0.7563862777674899</v>
+        <v>0.3522504507494375</v>
       </c>
       <c r="D6">
-        <v>0.1024106053919454</v>
+        <v>0.09309072339254953</v>
       </c>
       <c r="E6">
-        <v>0.2805457758547192</v>
+        <v>0.01612325053556318</v>
       </c>
       <c r="F6">
-        <v>4.965093779438945</v>
+        <v>5.923599722944857</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.293695703564012</v>
+        <v>0.117883545516527</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1499516754629013</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.871630965399675</v>
+        <v>2.721094567709656</v>
       </c>
       <c r="C7">
-        <v>0.7990422297615964</v>
+        <v>0.3717341689433624</v>
       </c>
       <c r="D7">
-        <v>0.1066401412663041</v>
+        <v>0.09767886832098327</v>
       </c>
       <c r="E7">
-        <v>0.2963955929555411</v>
+        <v>0.01610762946609973</v>
       </c>
       <c r="F7">
-        <v>5.198841299692617</v>
+        <v>6.108324652602647</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.3098174231719355</v>
+        <v>0.1195903839162114</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1541683252877561</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.556807454722559</v>
+        <v>3.221532348996618</v>
       </c>
       <c r="C8">
-        <v>0.9931199627410763</v>
+        <v>0.4601536505214767</v>
       </c>
       <c r="D8">
-        <v>0.1260230346180151</v>
+        <v>0.1184176427151442</v>
       </c>
       <c r="E8">
-        <v>0.3687929775859615</v>
+        <v>0.01605486739760387</v>
       </c>
       <c r="F8">
-        <v>6.266342332384909</v>
+        <v>6.948339368337969</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.3834635504848904</v>
+        <v>0.1273869732269759</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1738010002424772</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.005442338243597</v>
+        <v>4.284559685335296</v>
       </c>
       <c r="C9">
-        <v>1.405050256647655</v>
+        <v>0.6457497825223868</v>
       </c>
       <c r="D9">
-        <v>0.1678735473183792</v>
+        <v>0.1616278337380948</v>
       </c>
       <c r="E9">
-        <v>0.5237534330971769</v>
+        <v>0.01601802582720158</v>
       </c>
       <c r="F9">
-        <v>8.545174929584448</v>
+        <v>8.715255123877796</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.5410231056597041</v>
+        <v>0.1439471130156775</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.216852149197706</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>6.174616624160024</v>
+        <v>5.137128951679472</v>
       </c>
       <c r="C10">
-        <v>1.739799457055199</v>
+        <v>0.7935485257073367</v>
       </c>
       <c r="D10">
-        <v>0.2025263178266243</v>
+        <v>0.1958115143989261</v>
       </c>
       <c r="E10">
-        <v>0.6507686397788248</v>
+        <v>0.0160421071510104</v>
       </c>
       <c r="F10">
-        <v>10.40168211092669</v>
+        <v>10.1211047687874</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.6699755116307173</v>
+        <v>0.1572560063684847</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.252261515043827</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>6.741746655209113</v>
+        <v>5.546592154280745</v>
       </c>
       <c r="C11">
-        <v>1.903069294961426</v>
+        <v>0.8643947044755578</v>
       </c>
       <c r="D11">
-        <v>0.219617202921782</v>
+        <v>0.2121377542184746</v>
       </c>
       <c r="E11">
-        <v>0.7130353917885088</v>
+        <v>0.01606731990281662</v>
       </c>
       <c r="F11">
-        <v>11.30681166714379</v>
+        <v>10.79364703541154</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.7330995648001348</v>
+        <v>0.1636602389601194</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.2694714398705571</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>6.962990793114557</v>
+        <v>5.705384016449727</v>
       </c>
       <c r="C12">
-        <v>1.966935517436013</v>
+        <v>0.891859159052899</v>
       </c>
       <c r="D12">
-        <v>0.2263343963770836</v>
+        <v>0.2184570695583119</v>
       </c>
       <c r="E12">
-        <v>0.7374462858820152</v>
+        <v>0.01607926439658713</v>
       </c>
       <c r="F12">
-        <v>11.66064387068866</v>
+        <v>11.05405714379145</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.7578272576805603</v>
+        <v>0.1661461718128123</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.2761759844735536</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>6.915026539328949</v>
+        <v>5.671007791227794</v>
       </c>
       <c r="C13">
-        <v>1.953081270031646</v>
+        <v>0.88591375841429</v>
       </c>
       <c r="D13">
-        <v>0.2248757807802235</v>
+        <v>0.217089544367667</v>
       </c>
       <c r="E13">
-        <v>0.7321483791484837</v>
+        <v>0.01607657887207581</v>
       </c>
       <c r="F13">
-        <v>11.58390196191215</v>
+        <v>10.9977004217688</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.7524615654764446</v>
+        <v>0.1656078891368153</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.2747231750763319</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>6.759809024175297</v>
+        <v>5.559577117874369</v>
       </c>
       <c r="C14">
-        <v>1.908279612305193</v>
+        <v>0.8666407065593376</v>
       </c>
       <c r="D14">
-        <v>0.2201645465881654</v>
+        <v>0.2126547408611259</v>
       </c>
       <c r="E14">
-        <v>0.7150257483849032</v>
+        <v>0.01606825224981956</v>
       </c>
       <c r="F14">
-        <v>11.3356836331846</v>
+        <v>10.81494990382208</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.73511617483706</v>
+        <v>0.1638634725433761</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.270019081363472</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>6.665627134825741</v>
+        <v>5.491830034553971</v>
       </c>
       <c r="C15">
-        <v>1.881118845680476</v>
+        <v>0.8549221910373035</v>
       </c>
       <c r="D15">
-        <v>0.2173126020963849</v>
+        <v>0.2099569642335268</v>
       </c>
       <c r="E15">
-        <v>0.7046524636347513</v>
+        <v>0.01606347586171064</v>
       </c>
       <c r="F15">
-        <v>11.18516724580547</v>
+        <v>10.70378903651516</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.72460525451271</v>
+        <v>0.162803229039298</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.2671630697914651</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>6.138374978630679</v>
+        <v>5.110855605774248</v>
       </c>
       <c r="C16">
-        <v>1.72938684771816</v>
+        <v>0.7890007270555373</v>
       </c>
       <c r="D16">
-        <v>0.2014404024566261</v>
+        <v>0.1947622269180727</v>
       </c>
       <c r="E16">
-        <v>0.6468043916354986</v>
+        <v>0.01604077410577431</v>
       </c>
       <c r="F16">
-        <v>10.34393679567586</v>
+        <v>10.07789693434009</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.6659544251633207</v>
+        <v>0.1568453663655021</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.2511613373310695</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.824843638060884</v>
+        <v>4.883088253239919</v>
       </c>
       <c r="C17">
-        <v>1.639406639718231</v>
+        <v>0.7495613576530218</v>
       </c>
       <c r="D17">
-        <v>0.1920773950061943</v>
+        <v>0.1856560383903343</v>
       </c>
       <c r="E17">
-        <v>0.6125823685949285</v>
+        <v>0.01603072062166622</v>
       </c>
       <c r="F17">
-        <v>9.844878819430818</v>
+        <v>9.703032854805741</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.631231283070349</v>
+        <v>0.1532868827407299</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.2416459997431986</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.647724540015645</v>
+        <v>4.754074044736456</v>
       </c>
       <c r="C18">
-        <v>1.588653085904298</v>
+        <v>0.7272085983606758</v>
       </c>
       <c r="D18">
-        <v>0.1868129646067871</v>
+        <v>0.1804896613788571</v>
       </c>
       <c r="E18">
-        <v>0.5933073222203618</v>
+        <v>0.01602625514523792</v>
       </c>
       <c r="F18">
-        <v>9.563364270092052</v>
+        <v>9.490459678978709</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.6116661106202415</v>
+        <v>0.1512723453413685</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.236274722734322</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.588270442456405</v>
+        <v>4.71071691132471</v>
       </c>
       <c r="C19">
-        <v>1.571628728114945</v>
+        <v>0.7196941126262573</v>
       </c>
       <c r="D19">
-        <v>0.1850498676549819</v>
+        <v>0.1787519586170987</v>
       </c>
       <c r="E19">
-        <v>0.5868464457168443</v>
+        <v>0.01602496016080057</v>
       </c>
       <c r="F19">
-        <v>9.46893614032507</v>
+        <v>9.418980872144061</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.6051067790933828</v>
+        <v>0.1505955020200034</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.2344727709093348</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.857877754624383</v>
+        <v>4.907124198956353</v>
       </c>
       <c r="C20">
-        <v>1.648878706222263</v>
+        <v>0.7537246391001418</v>
       </c>
       <c r="D20">
-        <v>0.193061241779219</v>
+        <v>0.1866178640924545</v>
       </c>
       <c r="E20">
-        <v>0.6161818948030771</v>
+        <v>0.01603165227679382</v>
       </c>
       <c r="F20">
-        <v>9.897416913780404</v>
+        <v>9.742616727319813</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.6348843758645586</v>
+        <v>0.1536622864412607</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.2426482062056579</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6.805210876775334</v>
+        <v>5.592199959436755</v>
       </c>
       <c r="C21">
-        <v>1.921379250298514</v>
+        <v>0.8722833387691651</v>
       </c>
       <c r="D21">
-        <v>0.2215411810666836</v>
+        <v>0.2139534071253735</v>
       </c>
       <c r="E21">
-        <v>0.7200307350640998</v>
+        <v>0.01607062973359707</v>
       </c>
       <c r="F21">
-        <v>11.40826844741434</v>
+        <v>10.86846375936051</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.7401868503253937</v>
+        <v>0.1643741065158864</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.2713954378852748</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>7.463129892343773</v>
+        <v>6.062107444676826</v>
       </c>
       <c r="C22">
-        <v>2.11168559110655</v>
+        <v>0.95355177521364</v>
       </c>
       <c r="D22">
-        <v>0.2416220701206555</v>
+        <v>0.2326325031158945</v>
       </c>
       <c r="E22">
-        <v>0.7928827487223771</v>
+        <v>0.01611030375207689</v>
       </c>
       <c r="F22">
-        <v>12.46191902565511</v>
+        <v>11.63829190312083</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.8139393329925966</v>
+        <v>0.171735676966307</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.2912944276419722</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>7.107854655877986</v>
+        <v>5.809038495555455</v>
       </c>
       <c r="C23">
-        <v>2.008807646477976</v>
+        <v>0.9097857038585175</v>
       </c>
       <c r="D23">
-        <v>0.230747746923285</v>
+        <v>0.2225789079653708</v>
       </c>
       <c r="E23">
-        <v>0.7534668511663796</v>
+        <v>0.01608769119635267</v>
       </c>
       <c r="F23">
-        <v>11.89253359053964</v>
+        <v>11.2239287473916</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.7740494572238248</v>
+        <v>0.1677696332006136</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.2805611019868195</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.842933368852357</v>
+        <v>4.896251574979374</v>
       </c>
       <c r="C24">
-        <v>1.644593373672819</v>
+        <v>0.7518414268054983</v>
       </c>
       <c r="D24">
-        <v>0.1926160794701417</v>
+        <v>0.1861828099561649</v>
       </c>
       <c r="E24">
-        <v>0.6145533174582098</v>
+        <v>0.01603122700649284</v>
       </c>
       <c r="F24">
-        <v>9.873647788821472</v>
+        <v>9.724711769308186</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.6332315870776881</v>
+        <v>0.1534924697539779</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.2421948017395152</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>4.598618390326465</v>
+        <v>3.98620250946567</v>
       </c>
       <c r="C25">
-        <v>1.289088798565729</v>
+        <v>0.5938615274663732</v>
       </c>
       <c r="D25">
-        <v>0.1559995871433273</v>
+        <v>0.1495829881438908</v>
       </c>
       <c r="E25">
-        <v>0.4799709884601029</v>
+        <v>0.01601990429278077</v>
       </c>
       <c r="F25">
-        <v>7.902569064165164</v>
+        <v>8.221184904678552</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.006153527182078733</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.4965258945115494</v>
+        <v>0.139296622507338</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.2046244815631582</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_60/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.361961287415909</v>
+        <v>1.687334323027557</v>
       </c>
       <c r="C2">
-        <v>0.4848105480254787</v>
+        <v>0.3158231817095896</v>
       </c>
       <c r="D2">
-        <v>0.1241804865131115</v>
+        <v>0.03598047165972851</v>
       </c>
       <c r="E2">
-        <v>0.01604476148155487</v>
+        <v>1.378735620429481</v>
       </c>
       <c r="F2">
-        <v>7.182927734634944</v>
+        <v>1.818566633987473</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -445,19 +445,19 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.1295737520076656</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>1.906300860356055</v>
       </c>
       <c r="L2">
-        <v>0.179396620463379</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.566914155140751</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.960348133187779</v>
+        <v>1.456929535887923</v>
       </c>
       <c r="C3">
-        <v>0.4141283204426145</v>
+        <v>0.2713488772407402</v>
       </c>
       <c r="D3">
-        <v>0.1076379472651894</v>
+        <v>0.03783207682010392</v>
       </c>
       <c r="E3">
-        <v>0.01607887550949638</v>
+        <v>1.178677952126648</v>
       </c>
       <c r="F3">
-        <v>6.510791015079917</v>
+        <v>1.650534748040428</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.123319004711071</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>1.642787637872118</v>
       </c>
       <c r="L3">
-        <v>0.1634887643288394</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>1.553425084926204</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.722383974040724</v>
+        <v>1.317971546463838</v>
       </c>
       <c r="C4">
-        <v>0.3719633482375002</v>
+        <v>0.2445318155073011</v>
       </c>
       <c r="D4">
-        <v>0.09773279267037083</v>
+        <v>0.03899659880035777</v>
       </c>
       <c r="E4">
-        <v>0.01610745519604728</v>
+        <v>1.0589393527422</v>
       </c>
       <c r="F4">
-        <v>6.110498511309089</v>
+        <v>1.550983314693738</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -539,19 +539,19 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.119610487617237</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>1.483860186643142</v>
       </c>
       <c r="L4">
-        <v>0.1542181908714326</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>1.547335959216468</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.627327599235457</v>
+        <v>1.261888960687116</v>
       </c>
       <c r="C5">
-        <v>0.3550450166125358</v>
+        <v>0.2337073438176134</v>
       </c>
       <c r="D5">
-        <v>0.09374927309536929</v>
+        <v>0.03947763304849872</v>
       </c>
       <c r="E5">
-        <v>0.01612091008076977</v>
+        <v>1.010799284049384</v>
       </c>
       <c r="F5">
-        <v>5.950084054940106</v>
+        <v>1.511231759725433</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -586,19 +586,19 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.1181280752779443</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>1.419714136064783</v>
       </c>
       <c r="L5">
-        <v>0.1505536446467985</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>1.545365707982896</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.611652393911129</v>
+        <v>1.252606928878805</v>
       </c>
       <c r="C6">
-        <v>0.3522504507494375</v>
+        <v>0.2319156738835204</v>
       </c>
       <c r="D6">
-        <v>0.09309072339254953</v>
+        <v>0.03955788775484415</v>
       </c>
       <c r="E6">
-        <v>0.01612325053556318</v>
+        <v>1.00284179410113</v>
       </c>
       <c r="F6">
-        <v>5.923599722944857</v>
+        <v>1.504677766651412</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -633,19 +633,19 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.117883545516527</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1.409097216347874</v>
       </c>
       <c r="L6">
-        <v>0.1499516754629013</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>1.545068307911549</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.721094567709656</v>
+        <v>1.317213104858723</v>
       </c>
       <c r="C7">
-        <v>0.3717341689433624</v>
+        <v>0.2443854375761845</v>
       </c>
       <c r="D7">
-        <v>0.09767886832098327</v>
+        <v>0.03900306051016322</v>
       </c>
       <c r="E7">
-        <v>0.01610762946609973</v>
+        <v>1.058287624356481</v>
       </c>
       <c r="F7">
-        <v>6.108324652602647</v>
+        <v>1.550444023647728</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -680,19 +680,19 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1195903839162114</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>1.482992717795923</v>
       </c>
       <c r="L7">
-        <v>0.1541683252877561</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>1.547307368931698</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.221532348996618</v>
+        <v>1.607314148624596</v>
       </c>
       <c r="C8">
-        <v>0.4601536505214767</v>
+        <v>0.3003742531556952</v>
       </c>
       <c r="D8">
-        <v>0.1184176427151442</v>
+        <v>0.03661286569075628</v>
       </c>
       <c r="E8">
-        <v>0.01605486739760387</v>
+        <v>1.309033471362582</v>
       </c>
       <c r="F8">
-        <v>6.948339368337969</v>
+        <v>1.759818365561216</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -727,19 +727,19 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1273869732269759</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1.8147801305916</v>
       </c>
       <c r="L8">
-        <v>0.1738010002424772</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>1.561782416116529</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.284559685335296</v>
+        <v>2.200567050836469</v>
       </c>
       <c r="C9">
-        <v>0.6457497825223868</v>
+        <v>0.4150585586920101</v>
       </c>
       <c r="D9">
-        <v>0.1616278337380948</v>
+        <v>0.03217057169984372</v>
       </c>
       <c r="E9">
-        <v>0.01601802582720158</v>
+        <v>1.831767937747486</v>
       </c>
       <c r="F9">
-        <v>8.715255123877796</v>
+        <v>2.203885024982327</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -774,19 +774,19 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1439471130156775</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>2.493453547601604</v>
       </c>
       <c r="L9">
-        <v>0.216852149197706</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>1.609610202573293</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.137128951679472</v>
+        <v>2.658337307291504</v>
       </c>
       <c r="C10">
-        <v>0.7935485257073367</v>
+        <v>0.5039014267356094</v>
       </c>
       <c r="D10">
-        <v>0.1958115143989261</v>
+        <v>0.02910095633844989</v>
       </c>
       <c r="E10">
-        <v>0.0160421071510104</v>
+        <v>2.245264353361449</v>
       </c>
       <c r="F10">
-        <v>10.1211047687874</v>
+        <v>2.558100619954615</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -821,19 +821,19 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1572560063684847</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>3.017547586819319</v>
       </c>
       <c r="L10">
-        <v>0.252261515043827</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>1.659839452394763</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.546592154280745</v>
+        <v>2.873207500963929</v>
       </c>
       <c r="C11">
-        <v>0.8643947044755578</v>
+        <v>0.5457426075577416</v>
       </c>
       <c r="D11">
-        <v>0.2121377542184746</v>
+        <v>0.02776013550453804</v>
       </c>
       <c r="E11">
-        <v>0.01606731990281662</v>
+        <v>2.442666926975491</v>
       </c>
       <c r="F11">
-        <v>10.79364703541154</v>
+        <v>2.727306462613342</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -868,19 +868,19 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1636602389601194</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>3.263721458275256</v>
       </c>
       <c r="L11">
-        <v>0.2694714398705571</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>1.686824214375974</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.705384016449727</v>
+        <v>2.955709622996949</v>
       </c>
       <c r="C12">
-        <v>0.891859159052899</v>
+        <v>0.5618346033103876</v>
       </c>
       <c r="D12">
-        <v>0.2184570695583119</v>
+        <v>0.02726187123010959</v>
       </c>
       <c r="E12">
-        <v>0.01607926439658713</v>
+        <v>2.519052611227835</v>
       </c>
       <c r="F12">
-        <v>11.05405714379145</v>
+        <v>2.792737534030152</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -915,19 +915,19 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1661461718128123</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>3.358276179728591</v>
       </c>
       <c r="L12">
-        <v>0.2761759844735536</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>1.697722311885173</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.671007791227794</v>
+        <v>2.93788760658208</v>
       </c>
       <c r="C13">
-        <v>0.88591375841429</v>
+        <v>0.5583571357424546</v>
       </c>
       <c r="D13">
-        <v>0.217089544367667</v>
+        <v>0.02736873252134409</v>
       </c>
       <c r="E13">
-        <v>0.01607657887207581</v>
+        <v>2.502523613361703</v>
       </c>
       <c r="F13">
-        <v>10.9977004217688</v>
+        <v>2.778582004248875</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -962,19 +962,19 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.1656078891368153</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>3.337848954349738</v>
       </c>
       <c r="L13">
-        <v>0.2747231750763319</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>1.695343492079473</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.559577117874369</v>
+        <v>2.879971098703493</v>
       </c>
       <c r="C14">
-        <v>0.8666407065593376</v>
+        <v>0.5470612734315239</v>
       </c>
       <c r="D14">
-        <v>0.2126547408611259</v>
+        <v>0.02771894335061376</v>
       </c>
       <c r="E14">
-        <v>0.01606825224981956</v>
+        <v>2.448916587668393</v>
       </c>
       <c r="F14">
-        <v>10.81494990382208</v>
+        <v>2.732661099525586</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.1638634725433761</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>3.271472424610351</v>
       </c>
       <c r="L14">
-        <v>0.270019081363472</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>1.687706654110571</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.491830034553971</v>
+        <v>2.844649325481441</v>
       </c>
       <c r="C15">
-        <v>0.8549221910373035</v>
+        <v>0.5401758659870097</v>
       </c>
       <c r="D15">
-        <v>0.2099569642335268</v>
+        <v>0.02793474155523867</v>
       </c>
       <c r="E15">
-        <v>0.01606347586171064</v>
+        <v>2.416303215658345</v>
       </c>
       <c r="F15">
-        <v>10.70378903651516</v>
+        <v>2.704716204171262</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1056,19 +1056,19 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.162803229039298</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>3.230995667090156</v>
       </c>
       <c r="L15">
-        <v>0.2671630697914651</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>1.683120114910338</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.110855605774248</v>
+        <v>2.644443372127</v>
       </c>
       <c r="C16">
-        <v>0.7890007270555373</v>
+        <v>0.501199188690947</v>
       </c>
       <c r="D16">
-        <v>0.1947622269180727</v>
+        <v>0.0291898196071827</v>
       </c>
       <c r="E16">
-        <v>0.01604077410577431</v>
+        <v>2.232574884841924</v>
       </c>
       <c r="F16">
-        <v>10.07789693434009</v>
+        <v>2.547221106709287</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1103,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.1568453663655021</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>3.001633592696123</v>
       </c>
       <c r="L16">
-        <v>0.2511613373310695</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>1.658166110976339</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.883088253239919</v>
+        <v>2.523442415907709</v>
       </c>
       <c r="C17">
-        <v>0.7495613576530218</v>
+        <v>0.4776817173531072</v>
       </c>
       <c r="D17">
-        <v>0.1856560383903343</v>
+        <v>0.02997495507579728</v>
       </c>
       <c r="E17">
-        <v>0.01603072062166622</v>
+        <v>2.122439939875207</v>
       </c>
       <c r="F17">
-        <v>9.703032854805741</v>
+        <v>2.452800493488894</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1150,19 +1150,19 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0.1532868827407299</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>2.863059993437332</v>
       </c>
       <c r="L17">
-        <v>0.2416459997431986</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>1.643973207614096</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.754074044736456</v>
+        <v>2.454457342657747</v>
       </c>
       <c r="C18">
-        <v>0.7272085983606758</v>
+        <v>0.4642864060999443</v>
       </c>
       <c r="D18">
-        <v>0.1804896613788571</v>
+        <v>0.03043166746614112</v>
       </c>
       <c r="E18">
-        <v>0.01602625514523792</v>
+        <v>2.059948097781799</v>
       </c>
       <c r="F18">
-        <v>9.490459678978709</v>
+        <v>2.399238648568328</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1197,19 +1197,19 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.1512723453413685</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>2.784071757744897</v>
       </c>
       <c r="L18">
-        <v>0.236274722734322</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>1.636193268601829</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.71071691132471</v>
+        <v>2.431200088370133</v>
       </c>
       <c r="C19">
-        <v>0.7196941126262573</v>
+        <v>0.459772349428448</v>
       </c>
       <c r="D19">
-        <v>0.1787519586170987</v>
+        <v>0.03058714241415394</v>
       </c>
       <c r="E19">
-        <v>0.01602496016080057</v>
+        <v>2.038928092184648</v>
       </c>
       <c r="F19">
-        <v>9.418980872144061</v>
+        <v>2.381226227933539</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1244,19 +1244,19 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0.1505955020200034</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>2.757444499957984</v>
       </c>
       <c r="L19">
-        <v>0.2344727709093348</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>1.633622591402926</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.907124198956353</v>
+        <v>2.53625865548571</v>
       </c>
       <c r="C20">
-        <v>0.7537246391001418</v>
+        <v>0.4801713148881959</v>
       </c>
       <c r="D20">
-        <v>0.1866178640924545</v>
+        <v>0.029890836129983</v>
       </c>
       <c r="E20">
-        <v>0.01603165227679382</v>
+        <v>2.13407354323374</v>
       </c>
       <c r="F20">
-        <v>9.742616727319813</v>
+        <v>2.462773155332073</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1291,19 +1291,19 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0.1536622864412607</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>2.877735851127596</v>
       </c>
       <c r="L20">
-        <v>0.2426482062056579</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>1.645443807476369</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.592199959436755</v>
+        <v>2.896950171240292</v>
       </c>
       <c r="C21">
-        <v>0.8722833387691651</v>
+        <v>0.5503720464660375</v>
       </c>
       <c r="D21">
-        <v>0.2139534071253735</v>
+        <v>0.02761580721031898</v>
       </c>
       <c r="E21">
-        <v>0.01607062973359707</v>
+        <v>2.464615296870548</v>
       </c>
       <c r="F21">
-        <v>10.86846375936051</v>
+        <v>2.746110655046692</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0.1643741065158864</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>3.290930706479344</v>
       </c>
       <c r="L21">
-        <v>0.2713954378852748</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1.689930592462957</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>6.062107444676826</v>
+        <v>3.139407382966112</v>
       </c>
       <c r="C22">
-        <v>0.95355177521364</v>
+        <v>0.5977209195010289</v>
       </c>
       <c r="D22">
-        <v>0.2326325031158945</v>
+        <v>0.02618513234393838</v>
       </c>
       <c r="E22">
-        <v>0.01611030375207689</v>
+        <v>2.690345768122199</v>
       </c>
       <c r="F22">
-        <v>11.63829190312083</v>
+        <v>2.939308891364448</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1385,19 +1385,19 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0.171735676966307</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>3.568880571289867</v>
       </c>
       <c r="L22">
-        <v>0.2912944276419722</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1.723015821389936</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.809038495555455</v>
+        <v>3.009320173134881</v>
       </c>
       <c r="C23">
-        <v>0.9097857038585175</v>
+        <v>0.5722995665504413</v>
       </c>
       <c r="D23">
-        <v>0.2225789079653708</v>
+        <v>0.02694298315491039</v>
       </c>
       <c r="E23">
-        <v>0.01608769119635267</v>
+        <v>2.568868295859076</v>
       </c>
       <c r="F23">
-        <v>11.2239287473916</v>
+        <v>2.835388458581548</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1432,19 +1432,19 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.1677696332006136</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>3.419728958072085</v>
       </c>
       <c r="L23">
-        <v>0.2805611019868195</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>1.704958962862804</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.896251574979374</v>
+        <v>2.530462640430926</v>
       </c>
       <c r="C24">
-        <v>0.7518414268054983</v>
+        <v>0.479045381003175</v>
       </c>
       <c r="D24">
-        <v>0.1861828099561649</v>
+        <v>0.02992884981986421</v>
       </c>
       <c r="E24">
-        <v>0.01603122700649284</v>
+        <v>2.128811439272411</v>
       </c>
       <c r="F24">
-        <v>9.724711769308186</v>
+        <v>2.458262280991192</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1479,19 +1479,19 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0.1534924697539779</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>2.871098795154126</v>
       </c>
       <c r="L24">
-        <v>0.2421948017395152</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>1.644777772694965</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.98620250946567</v>
+        <v>2.036793853125062</v>
       </c>
       <c r="C25">
-        <v>0.5938615274663732</v>
+        <v>0.3833575018174713</v>
       </c>
       <c r="D25">
-        <v>0.1495829881438908</v>
+        <v>0.03334206868692569</v>
       </c>
       <c r="E25">
-        <v>0.01601990429278077</v>
+        <v>1.68604363083216</v>
       </c>
       <c r="F25">
-        <v>8.221184904678552</v>
+        <v>2.079447485959591</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1526,19 +1526,19 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.139296622507338</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>2.306052886172353</v>
       </c>
       <c r="L25">
-        <v>0.2046244815631582</v>
+        <v>0</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.594281232783786</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_60/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.687334323027557</v>
+        <v>0.7466303911703562</v>
       </c>
       <c r="C2">
-        <v>0.3158231817095896</v>
+        <v>0.09815769477026492</v>
       </c>
       <c r="D2">
-        <v>0.03598047165972851</v>
+        <v>0.05992727706876089</v>
       </c>
       <c r="E2">
-        <v>1.378735620429481</v>
+        <v>0.4056186826292674</v>
       </c>
       <c r="F2">
-        <v>1.818566633987473</v>
+        <v>1.661456248505459</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.906300860356055</v>
+        <v>0.7677417387787386</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.566914155140751</v>
+        <v>2.233450337812926</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.456929535887923</v>
+        <v>0.6889620168639681</v>
       </c>
       <c r="C3">
-        <v>0.2713488772407402</v>
+        <v>0.08656799084548084</v>
       </c>
       <c r="D3">
-        <v>0.03783207682010392</v>
+        <v>0.0602503504002545</v>
       </c>
       <c r="E3">
-        <v>1.178677952126648</v>
+        <v>0.353796730526156</v>
       </c>
       <c r="F3">
-        <v>1.650534748040428</v>
+        <v>1.62432169245362</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1.642787637872118</v>
+        <v>0.7010882620879499</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.553425084926204</v>
+        <v>2.231680028311558</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.317971546463838</v>
+        <v>0.6539997000332676</v>
       </c>
       <c r="C4">
-        <v>0.2445318155073011</v>
+        <v>0.07948822867969341</v>
       </c>
       <c r="D4">
-        <v>0.03899659880035777</v>
+        <v>0.06045457120990427</v>
       </c>
       <c r="E4">
-        <v>1.0589393527422</v>
+        <v>0.3220972906575952</v>
       </c>
       <c r="F4">
-        <v>1.550983314693738</v>
+        <v>1.602408460569649</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>1.483860186643142</v>
+        <v>0.6606010198522654</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.547335959216468</v>
+        <v>2.23120319877124</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.261888960687116</v>
+        <v>0.6398634919545998</v>
       </c>
       <c r="C5">
-        <v>0.2337073438176134</v>
+        <v>0.07661200573552662</v>
       </c>
       <c r="D5">
-        <v>0.03947763304849872</v>
+        <v>0.06053925492314072</v>
       </c>
       <c r="E5">
-        <v>1.010799284049384</v>
+        <v>0.30920710129935</v>
       </c>
       <c r="F5">
-        <v>1.511231759725433</v>
+        <v>1.593700552284346</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1.419714136064783</v>
+        <v>0.6442110383158308</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.545365707982896</v>
+        <v>2.231161623374291</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.252606928878805</v>
+        <v>0.637522873772042</v>
       </c>
       <c r="C6">
-        <v>0.2319156738835204</v>
+        <v>0.07613493600683796</v>
       </c>
       <c r="D6">
-        <v>0.03955788775484415</v>
+        <v>0.06055340462190983</v>
       </c>
       <c r="E6">
-        <v>1.00284179410113</v>
+        <v>0.3070682905104292</v>
       </c>
       <c r="F6">
-        <v>1.504677766651412</v>
+        <v>1.59226797696482</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>1.409097216347874</v>
+        <v>0.6414960338219657</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.545068307911549</v>
+        <v>2.231163924654794</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.317213104858723</v>
+        <v>0.6538086051819221</v>
       </c>
       <c r="C7">
-        <v>0.2443854375761845</v>
+        <v>0.07944940354732921</v>
       </c>
       <c r="D7">
-        <v>0.03900306051016322</v>
+        <v>0.06045570737812334</v>
       </c>
       <c r="E7">
-        <v>1.058287624356481</v>
+        <v>0.3219233405377366</v>
       </c>
       <c r="F7">
-        <v>1.550444023647728</v>
+        <v>1.602290125848384</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>1.482992717795923</v>
+        <v>0.6603795396167413</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.547307368931698</v>
+        <v>2.231202020588285</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.607314148624596</v>
+        <v>0.7266530778295817</v>
       </c>
       <c r="C8">
-        <v>0.3003742531556952</v>
+        <v>0.09415382904495573</v>
       </c>
       <c r="D8">
-        <v>0.03661286569075628</v>
+        <v>0.06003745225412871</v>
       </c>
       <c r="E8">
-        <v>1.309033471362582</v>
+        <v>0.387724188369674</v>
       </c>
       <c r="F8">
-        <v>1.759818365561216</v>
+        <v>1.648467264238292</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.8147801305916</v>
+        <v>0.7446678458739768</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.561782416116529</v>
+        <v>2.232712878586511</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.200567050836469</v>
+        <v>0.873095933404727</v>
       </c>
       <c r="C9">
-        <v>0.4150585586920101</v>
+        <v>0.12329302811969</v>
       </c>
       <c r="D9">
-        <v>0.03217057169984372</v>
+        <v>0.05926411483166483</v>
       </c>
       <c r="E9">
-        <v>1.831767937747486</v>
+        <v>0.5178241206302232</v>
       </c>
       <c r="F9">
-        <v>2.203885024982327</v>
+        <v>1.74612665310859</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>2.493453547601604</v>
+        <v>0.9135028826586336</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.609610202573293</v>
+        <v>2.240549689117472</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.658337307291504</v>
+        <v>0.9829661082179655</v>
       </c>
       <c r="C10">
-        <v>0.5039014267356094</v>
+        <v>0.1449103022634972</v>
       </c>
       <c r="D10">
-        <v>0.02910095633844989</v>
+        <v>0.05872508360767092</v>
       </c>
       <c r="E10">
-        <v>2.245264353361449</v>
+        <v>0.6142289686525686</v>
       </c>
       <c r="F10">
-        <v>2.558100619954615</v>
+        <v>1.822307572166096</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>3.017547586819319</v>
+        <v>1.039816409272305</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.659839452394763</v>
+        <v>2.249326500605292</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.873207500963929</v>
+        <v>1.033463459535255</v>
       </c>
       <c r="C11">
-        <v>0.5457426075577416</v>
+        <v>0.1547951352418124</v>
       </c>
       <c r="D11">
-        <v>0.02776013550453804</v>
+        <v>0.058486322855277</v>
       </c>
       <c r="E11">
-        <v>2.442666926975491</v>
+        <v>0.6583021958962689</v>
       </c>
       <c r="F11">
-        <v>2.727306462613342</v>
+        <v>1.85794842826283</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>3.263721458275256</v>
+        <v>1.097797327343187</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.686824214375974</v>
+        <v>2.253985464333482</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.955709622996949</v>
+        <v>1.052661201842113</v>
       </c>
       <c r="C12">
-        <v>0.5618346033103876</v>
+        <v>0.1585459907324491</v>
       </c>
       <c r="D12">
-        <v>0.02726187123010959</v>
+        <v>0.05839685001356365</v>
       </c>
       <c r="E12">
-        <v>2.519052611227835</v>
+        <v>0.6750259158212373</v>
       </c>
       <c r="F12">
-        <v>2.792737534030152</v>
+        <v>1.87158808389924</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>3.358276179728591</v>
+        <v>1.119829758211324</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.697722311885173</v>
+        <v>2.255846352783607</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.93788760658208</v>
+        <v>1.048523248194385</v>
       </c>
       <c r="C13">
-        <v>0.5583571357424546</v>
+        <v>0.1577378295788776</v>
       </c>
       <c r="D13">
-        <v>0.02736873252134409</v>
+        <v>0.05841607753193578</v>
       </c>
       <c r="E13">
-        <v>2.502523613361703</v>
+        <v>0.6714226002894463</v>
       </c>
       <c r="F13">
-        <v>2.778582004248875</v>
+        <v>1.868644145615434</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>3.337848954349738</v>
+        <v>1.115081261621981</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.695343492079473</v>
+        <v>2.25544126588197</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.879971098703493</v>
+        <v>1.035041349614914</v>
       </c>
       <c r="C14">
-        <v>0.5470612734315239</v>
+        <v>0.1551035643812497</v>
       </c>
       <c r="D14">
-        <v>0.02771894335061376</v>
+        <v>0.05847894293902556</v>
       </c>
       <c r="E14">
-        <v>2.448916587668393</v>
+        <v>0.6596773660403983</v>
       </c>
       <c r="F14">
-        <v>2.732661099525586</v>
+        <v>1.85906769167363</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>3.271472424610351</v>
+        <v>1.099608410502924</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.687706654110571</v>
+        <v>2.254136619201219</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.844649325481441</v>
+        <v>1.026793163720924</v>
       </c>
       <c r="C15">
-        <v>0.5401758659870097</v>
+        <v>0.1534910119149231</v>
       </c>
       <c r="D15">
-        <v>0.02793474155523867</v>
+        <v>0.05851757273106983</v>
       </c>
       <c r="E15">
-        <v>2.416303215658345</v>
+        <v>0.6524876006739504</v>
       </c>
       <c r="F15">
-        <v>2.704716204171262</v>
+        <v>1.853220535252376</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>3.230995667090156</v>
+        <v>1.090140826052362</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.683120114910338</v>
+        <v>2.253350095344885</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.644443372127</v>
+        <v>0.9796764873269694</v>
       </c>
       <c r="C16">
-        <v>0.501199188690947</v>
+        <v>0.1442653614287508</v>
       </c>
       <c r="D16">
-        <v>0.0291898196071827</v>
+        <v>0.05874081806625853</v>
       </c>
       <c r="E16">
-        <v>2.232574884841924</v>
+        <v>0.6113533058149017</v>
       </c>
       <c r="F16">
-        <v>2.547221106709287</v>
+        <v>1.819998320978897</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>3.001633592696123</v>
+        <v>1.036037816693693</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.658166110976339</v>
+        <v>2.249035504825954</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.523442415907709</v>
+        <v>0.9509051354527855</v>
       </c>
       <c r="C17">
-        <v>0.4776817173531072</v>
+        <v>0.1386190373113436</v>
       </c>
       <c r="D17">
-        <v>0.02997495507579728</v>
+        <v>0.05887943262324136</v>
       </c>
       <c r="E17">
-        <v>2.122439939875207</v>
+        <v>0.586176587014748</v>
       </c>
       <c r="F17">
-        <v>2.452800493488894</v>
+        <v>1.79987109702526</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>2.863059993437332</v>
+        <v>1.002981684275369</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.643973207614096</v>
+        <v>2.24655989081549</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.454457342657747</v>
+        <v>0.9344051926355519</v>
       </c>
       <c r="C18">
-        <v>0.4642864060999443</v>
+        <v>0.1353762028250571</v>
       </c>
       <c r="D18">
-        <v>0.03043166746614112</v>
+        <v>0.0589597660511707</v>
       </c>
       <c r="E18">
-        <v>2.059948097781799</v>
+        <v>0.5717159718342941</v>
       </c>
       <c r="F18">
-        <v>2.399238648568328</v>
+        <v>1.788387145680247</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>2.784071757744897</v>
+        <v>0.9840175490617469</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.636193268601829</v>
+        <v>2.245198653261227</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.431200088370133</v>
+        <v>0.9288269035999406</v>
       </c>
       <c r="C19">
-        <v>0.459772349428448</v>
+        <v>0.1342790456131979</v>
       </c>
       <c r="D19">
-        <v>0.03058714241415394</v>
+        <v>0.05898706924705621</v>
       </c>
       <c r="E19">
-        <v>2.038928092184648</v>
+        <v>0.5668232704412048</v>
       </c>
       <c r="F19">
-        <v>2.381226227933539</v>
+        <v>1.78451475279347</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>2.757444499957984</v>
+        <v>0.9776049682324981</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.633622591402926</v>
+        <v>2.244748500458044</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.53625865548571</v>
+        <v>0.9539628589747622</v>
       </c>
       <c r="C20">
-        <v>0.4801713148881959</v>
+        <v>0.1392196007599296</v>
       </c>
       <c r="D20">
-        <v>0.029890836129983</v>
+        <v>0.05886461405439647</v>
       </c>
       <c r="E20">
-        <v>2.13407354323374</v>
+        <v>0.5888545637521361</v>
       </c>
       <c r="F20">
-        <v>2.462773155332073</v>
+        <v>1.802004070107515</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>2.877735851127596</v>
+        <v>1.006495496531187</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.645443807476369</v>
+        <v>2.246816932184259</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.896950171240292</v>
+        <v>1.038999251794792</v>
       </c>
       <c r="C21">
-        <v>0.5503720464660375</v>
+        <v>0.1558771006023676</v>
       </c>
       <c r="D21">
-        <v>0.02761580721031898</v>
+        <v>0.05846045220417473</v>
       </c>
       <c r="E21">
-        <v>2.464615296870548</v>
+        <v>0.6631262770471267</v>
       </c>
       <c r="F21">
-        <v>2.746110655046692</v>
+        <v>1.861876628974784</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>3.290930706479344</v>
+        <v>1.104151078642417</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.689930592462957</v>
+        <v>2.254517196180956</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.139407382966112</v>
+        <v>1.095016030675538</v>
       </c>
       <c r="C22">
-        <v>0.5977209195010289</v>
+        <v>0.1668086914587832</v>
       </c>
       <c r="D22">
-        <v>0.02618513234393838</v>
+        <v>0.05820179872271858</v>
       </c>
       <c r="E22">
-        <v>2.690345768122199</v>
+        <v>0.7118674783995118</v>
       </c>
       <c r="F22">
-        <v>2.939308891364448</v>
+        <v>1.901842408072952</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>3.568880571289867</v>
+        <v>1.168420190436052</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.723015821389936</v>
+        <v>2.260113444487786</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.009320173134881</v>
+        <v>1.065078116239022</v>
       </c>
       <c r="C23">
-        <v>0.5722995665504413</v>
+        <v>0.1609700666752474</v>
       </c>
       <c r="D23">
-        <v>0.02694298315491039</v>
+        <v>0.05833934002444607</v>
       </c>
       <c r="E23">
-        <v>2.568868295859076</v>
+        <v>0.6858341230852432</v>
       </c>
       <c r="F23">
-        <v>2.835388458581548</v>
+        <v>1.880434965373752</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>3.419728958072085</v>
+        <v>1.13407728458003</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.704958962862804</v>
+        <v>2.257074770686287</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.530462640430926</v>
+        <v>0.9525803342697827</v>
       </c>
       <c r="C24">
-        <v>0.479045381003175</v>
+        <v>0.1389480757355841</v>
       </c>
       <c r="D24">
-        <v>0.02992884981986421</v>
+        <v>0.05887131152912239</v>
       </c>
       <c r="E24">
-        <v>2.128811439272411</v>
+        <v>0.5876438076756756</v>
       </c>
       <c r="F24">
-        <v>2.458262280991192</v>
+        <v>1.801039480657337</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>2.871098795154126</v>
+        <v>1.004906776677416</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.644777772694965</v>
+        <v>2.246700530617062</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.036793853125062</v>
+        <v>0.833085476985957</v>
       </c>
       <c r="C25">
-        <v>0.3833575018174713</v>
+        <v>0.1153751661600779</v>
       </c>
       <c r="D25">
-        <v>0.03334206868692569</v>
+        <v>0.05946824915568172</v>
       </c>
       <c r="E25">
-        <v>1.68604363083216</v>
+        <v>0.482497090717203</v>
       </c>
       <c r="F25">
-        <v>2.079447485959591</v>
+        <v>1.718936341768085</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>2.306052886172353</v>
+        <v>0.8674377740416048</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.594281232783786</v>
+        <v>2.237902927038164</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_60/res_line/pl_mw.xlsx
@@ -421,19 +421,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.7466303911703562</v>
+        <v>1.687334323027613</v>
       </c>
       <c r="C2">
-        <v>0.09815769477026492</v>
+        <v>0.3158231817094759</v>
       </c>
       <c r="D2">
-        <v>0.05992727706876089</v>
+        <v>0.03598047165995055</v>
       </c>
       <c r="E2">
-        <v>0.4056186826292674</v>
+        <v>1.378735620429495</v>
       </c>
       <c r="F2">
-        <v>1.661456248505459</v>
+        <v>1.818566633987459</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.7677417387787386</v>
+        <v>1.906300860356083</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>2.233450337812926</v>
+        <v>1.566914155140822</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,19 +468,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6889620168639681</v>
+        <v>1.456929535887923</v>
       </c>
       <c r="C3">
-        <v>0.08656799084548084</v>
+        <v>0.2713488772405981</v>
       </c>
       <c r="D3">
-        <v>0.0602503504002545</v>
+        <v>0.03783207682010392</v>
       </c>
       <c r="E3">
-        <v>0.353796730526156</v>
+        <v>1.178677952126648</v>
       </c>
       <c r="F3">
-        <v>1.62432169245362</v>
+        <v>1.650534748040428</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7010882620879499</v>
+        <v>1.642787637872118</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -504,7 +504,7 @@
         <v>0</v>
       </c>
       <c r="N3">
-        <v>2.231680028311558</v>
+        <v>1.553425084926218</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,19 +515,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6539997000332676</v>
+        <v>1.317971546463866</v>
       </c>
       <c r="C4">
-        <v>0.07948822867969341</v>
+        <v>0.2445318155072869</v>
       </c>
       <c r="D4">
-        <v>0.06045457120990427</v>
+        <v>0.03899659880035777</v>
       </c>
       <c r="E4">
-        <v>0.3220972906575952</v>
+        <v>1.058939352742215</v>
       </c>
       <c r="F4">
-        <v>1.602408460569649</v>
+        <v>1.550983314693752</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -542,7 +542,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.6606010198522654</v>
+        <v>1.483860186643142</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -551,7 +551,7 @@
         <v>0</v>
       </c>
       <c r="N4">
-        <v>2.23120319877124</v>
+        <v>1.547335959216454</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6398634919545998</v>
+        <v>1.261888960687202</v>
       </c>
       <c r="C5">
-        <v>0.07661200573552662</v>
+        <v>0.2337073438175281</v>
       </c>
       <c r="D5">
-        <v>0.06053925492314072</v>
+        <v>0.03947763304861418</v>
       </c>
       <c r="E5">
-        <v>0.30920710129935</v>
+        <v>1.010799284049313</v>
       </c>
       <c r="F5">
-        <v>1.593700552284346</v>
+        <v>1.511231759725419</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -589,7 +589,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6442110383158308</v>
+        <v>1.41971413606484</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -598,7 +598,7 @@
         <v>0</v>
       </c>
       <c r="N5">
-        <v>2.231161623374291</v>
+        <v>1.54536570798281</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,19 +609,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.637522873772042</v>
+        <v>1.252606928878976</v>
       </c>
       <c r="C6">
-        <v>0.07613493600683796</v>
+        <v>0.2319156738832504</v>
       </c>
       <c r="D6">
-        <v>0.06055340462190983</v>
+        <v>0.03955788775477664</v>
       </c>
       <c r="E6">
-        <v>0.3070682905104292</v>
+        <v>1.002841794101158</v>
       </c>
       <c r="F6">
-        <v>1.59226797696482</v>
+        <v>1.504677766651398</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -636,7 +636,7 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6414960338219657</v>
+        <v>1.40909721634776</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -645,7 +645,7 @@
         <v>0</v>
       </c>
       <c r="N6">
-        <v>2.231163924654794</v>
+        <v>1.545068307911535</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,19 +656,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6538086051819221</v>
+        <v>1.317213104858666</v>
       </c>
       <c r="C7">
-        <v>0.07944940354732921</v>
+        <v>0.2443854375757297</v>
       </c>
       <c r="D7">
-        <v>0.06045570737812334</v>
+        <v>0.03900306051028046</v>
       </c>
       <c r="E7">
-        <v>0.3219233405377366</v>
+        <v>1.05828762435651</v>
       </c>
       <c r="F7">
-        <v>1.602290125848384</v>
+        <v>1.550444023647728</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -683,7 +683,7 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6603795396167413</v>
+        <v>1.482992717795867</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -692,7 +692,7 @@
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.231202020588285</v>
+        <v>1.547307368931698</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,19 +703,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7266530778295817</v>
+        <v>1.607314148624795</v>
       </c>
       <c r="C8">
-        <v>0.09415382904495573</v>
+        <v>0.3003742531556384</v>
       </c>
       <c r="D8">
-        <v>0.06003745225412871</v>
+        <v>0.03661286569075983</v>
       </c>
       <c r="E8">
-        <v>0.387724188369674</v>
+        <v>1.309033471362596</v>
       </c>
       <c r="F8">
-        <v>1.648467264238292</v>
+        <v>1.759818365561216</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -730,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.7446678458739768</v>
+        <v>1.814780130591657</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -739,7 +739,7 @@
         <v>0</v>
       </c>
       <c r="N8">
-        <v>2.232712878586511</v>
+        <v>1.561782416116586</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,19 +750,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.873095933404727</v>
+        <v>2.200567050836526</v>
       </c>
       <c r="C9">
-        <v>0.12329302811969</v>
+        <v>0.4150585586920101</v>
       </c>
       <c r="D9">
-        <v>0.05926411483166483</v>
+        <v>0.03217057169997517</v>
       </c>
       <c r="E9">
-        <v>0.5178241206302232</v>
+        <v>1.8317679377475</v>
       </c>
       <c r="F9">
-        <v>1.74612665310859</v>
+        <v>2.203885024982313</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.9135028826586336</v>
+        <v>2.493453547601518</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -786,7 +786,7 @@
         <v>0</v>
       </c>
       <c r="N9">
-        <v>2.240549689117472</v>
+        <v>1.609610202573307</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,19 +797,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.9829661082179655</v>
+        <v>2.658337307291276</v>
       </c>
       <c r="C10">
-        <v>0.1449103022634972</v>
+        <v>0.5039014267358084</v>
       </c>
       <c r="D10">
-        <v>0.05872508360767092</v>
+        <v>0.02910095633844811</v>
       </c>
       <c r="E10">
-        <v>0.6142289686525686</v>
+        <v>2.245264353361549</v>
       </c>
       <c r="F10">
-        <v>1.822307572166096</v>
+        <v>2.558100619954644</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.039816409272305</v>
+        <v>3.017547586819319</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="N10">
-        <v>2.249326500605292</v>
+        <v>1.659839452394763</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,19 +844,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.033463459535255</v>
+        <v>2.873207500963815</v>
       </c>
       <c r="C11">
-        <v>0.1547951352418124</v>
+        <v>0.545742607557969</v>
       </c>
       <c r="D11">
-        <v>0.058486322855277</v>
+        <v>0.02776013550431067</v>
       </c>
       <c r="E11">
-        <v>0.6583021958962689</v>
+        <v>2.442666926975505</v>
       </c>
       <c r="F11">
-        <v>1.85794842826283</v>
+        <v>2.72730646261337</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.097797327343187</v>
+        <v>3.263721458275256</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.253985464333482</v>
+        <v>1.686824214375974</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.052661201842113</v>
+        <v>2.955709622996892</v>
       </c>
       <c r="C12">
-        <v>0.1585459907324491</v>
+        <v>0.5618346033103876</v>
       </c>
       <c r="D12">
-        <v>0.05839685001356365</v>
+        <v>0.02726187123010249</v>
       </c>
       <c r="E12">
-        <v>0.6750259158212373</v>
+        <v>2.519052611227806</v>
       </c>
       <c r="F12">
-        <v>1.87158808389924</v>
+        <v>2.792737534030096</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -918,7 +918,7 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.119829758211324</v>
+        <v>3.358276179728762</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -927,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="N12">
-        <v>2.255846352783607</v>
+        <v>1.697722311885144</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,19 +938,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.048523248194385</v>
+        <v>2.937887606582194</v>
       </c>
       <c r="C13">
-        <v>0.1577378295788776</v>
+        <v>0.5583571357422841</v>
       </c>
       <c r="D13">
-        <v>0.05841607753193578</v>
+        <v>0.02736873252170291</v>
       </c>
       <c r="E13">
-        <v>0.6714226002894463</v>
+        <v>2.502523613361703</v>
       </c>
       <c r="F13">
-        <v>1.868644145615434</v>
+        <v>2.778582004248875</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -965,7 +965,7 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.115081261621981</v>
+        <v>3.337848954349681</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="N13">
-        <v>2.25544126588197</v>
+        <v>1.695343492079502</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,19 +985,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.035041349614914</v>
+        <v>2.879971098703663</v>
       </c>
       <c r="C14">
-        <v>0.1551035643812497</v>
+        <v>0.5470612734314955</v>
       </c>
       <c r="D14">
-        <v>0.05847894293902556</v>
+        <v>0.02771894335071678</v>
       </c>
       <c r="E14">
-        <v>0.6596773660403983</v>
+        <v>2.448916587668322</v>
       </c>
       <c r="F14">
-        <v>1.85906769167363</v>
+        <v>2.732661099525558</v>
       </c>
       <c r="G14">
         <v>0</v>
@@ -1012,7 +1012,7 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.099608410502924</v>
+        <v>3.271472424610465</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1021,7 +1021,7 @@
         <v>0</v>
       </c>
       <c r="N14">
-        <v>2.254136619201219</v>
+        <v>1.687706654110599</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,19 +1032,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.026793163720924</v>
+        <v>2.844649325481612</v>
       </c>
       <c r="C15">
-        <v>0.1534910119149231</v>
+        <v>0.5401758659870382</v>
       </c>
       <c r="D15">
-        <v>0.05851757273106983</v>
+        <v>0.02793474155522446</v>
       </c>
       <c r="E15">
-        <v>0.6524876006739504</v>
+        <v>2.416303215658345</v>
       </c>
       <c r="F15">
-        <v>1.853220535252376</v>
+        <v>2.704716204171234</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1059,7 +1059,7 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.090140826052362</v>
+        <v>3.230995667090212</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1068,7 +1068,7 @@
         <v>0</v>
       </c>
       <c r="N15">
-        <v>2.253350095344885</v>
+        <v>1.683120114910366</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,19 +1079,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.9796764873269694</v>
+        <v>2.644443372127228</v>
       </c>
       <c r="C16">
-        <v>0.1442653614287508</v>
+        <v>0.5011991886909755</v>
       </c>
       <c r="D16">
-        <v>0.05874081806625853</v>
+        <v>0.02918981960729639</v>
       </c>
       <c r="E16">
-        <v>0.6113533058149017</v>
+        <v>2.23257488484191</v>
       </c>
       <c r="F16">
-        <v>1.819998320978897</v>
+        <v>2.547221106709287</v>
       </c>
       <c r="G16">
         <v>0</v>
@@ -1106,7 +1106,7 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.036037816693693</v>
+        <v>3.001633592696237</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="N16">
-        <v>2.249035504825954</v>
+        <v>1.658166110976353</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,19 +1126,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.9509051354527855</v>
+        <v>2.523442415907709</v>
       </c>
       <c r="C17">
-        <v>0.1386190373113436</v>
+        <v>0.4776817173526808</v>
       </c>
       <c r="D17">
-        <v>0.05887943262324136</v>
+        <v>0.02997495507590386</v>
       </c>
       <c r="E17">
-        <v>0.586176587014748</v>
+        <v>2.122439939875264</v>
       </c>
       <c r="F17">
-        <v>1.79987109702526</v>
+        <v>2.452800493488866</v>
       </c>
       <c r="G17">
         <v>0</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.002981684275369</v>
+        <v>2.863059993437361</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="N17">
-        <v>2.24655989081549</v>
+        <v>1.64397320761411</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,19 +1173,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.9344051926355519</v>
+        <v>2.454457342657804</v>
       </c>
       <c r="C18">
-        <v>0.1353762028250571</v>
+        <v>0.4642864061001433</v>
       </c>
       <c r="D18">
-        <v>0.0589597660511707</v>
+        <v>0.03043166746613934</v>
       </c>
       <c r="E18">
-        <v>0.5717159718342941</v>
+        <v>2.059948097781771</v>
       </c>
       <c r="F18">
-        <v>1.788387145680247</v>
+        <v>2.399238648568343</v>
       </c>
       <c r="G18">
         <v>0</v>
@@ -1200,7 +1200,7 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.9840175490617469</v>
+        <v>2.784071757744812</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         <v>0</v>
       </c>
       <c r="N18">
-        <v>2.245198653261227</v>
+        <v>1.636193268601815</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,19 +1220,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.9288269035999406</v>
+        <v>2.43120008837019</v>
       </c>
       <c r="C19">
-        <v>0.1342790456131979</v>
+        <v>0.459772349428448</v>
       </c>
       <c r="D19">
-        <v>0.05898706924705621</v>
+        <v>0.03058714241403671</v>
       </c>
       <c r="E19">
-        <v>0.5668232704412048</v>
+        <v>2.038928092184648</v>
       </c>
       <c r="F19">
-        <v>1.78451475279347</v>
+        <v>2.381226227933553</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -1247,7 +1247,7 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.9776049682324981</v>
+        <v>2.757444499958012</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.244748500458044</v>
+        <v>1.63362259140294</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,19 +1267,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.9539628589747622</v>
+        <v>2.536258655485824</v>
       </c>
       <c r="C20">
-        <v>0.1392196007599296</v>
+        <v>0.4801713148882527</v>
       </c>
       <c r="D20">
-        <v>0.05886461405439647</v>
+        <v>0.02989083613008425</v>
       </c>
       <c r="E20">
-        <v>0.5888545637521361</v>
+        <v>2.134073543233725</v>
       </c>
       <c r="F20">
-        <v>1.802004070107515</v>
+        <v>2.462773155332044</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -1294,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.006495496531187</v>
+        <v>2.877735851127568</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1303,7 +1303,7 @@
         <v>0</v>
       </c>
       <c r="N20">
-        <v>2.246816932184259</v>
+        <v>1.645443807476383</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,19 +1314,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.038999251794792</v>
+        <v>2.896950171240235</v>
       </c>
       <c r="C21">
-        <v>0.1558771006023676</v>
+        <v>0.5503720464660375</v>
       </c>
       <c r="D21">
-        <v>0.05846045220417473</v>
+        <v>0.02761580721032431</v>
       </c>
       <c r="E21">
-        <v>0.6631262770471267</v>
+        <v>2.464615296870548</v>
       </c>
       <c r="F21">
-        <v>1.861876628974784</v>
+        <v>2.746110655046692</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -1341,7 +1341,7 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.104151078642417</v>
+        <v>3.290930706479344</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="N21">
-        <v>2.254517196180956</v>
+        <v>1.689930592462957</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,19 +1361,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.095016030675538</v>
+        <v>3.139407382965885</v>
       </c>
       <c r="C22">
-        <v>0.1668086914587832</v>
+        <v>0.5977209195003752</v>
       </c>
       <c r="D22">
-        <v>0.05820179872271858</v>
+        <v>0.02618513234394193</v>
       </c>
       <c r="E22">
-        <v>0.7118674783995118</v>
+        <v>2.690345768122171</v>
       </c>
       <c r="F22">
-        <v>1.901842408072952</v>
+        <v>2.939308891364448</v>
       </c>
       <c r="G22">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.168420190436052</v>
+        <v>3.568880571289981</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>2.260113444487786</v>
+        <v>1.723015821389879</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,19 +1408,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.065078116239022</v>
+        <v>3.009320173134938</v>
       </c>
       <c r="C23">
-        <v>0.1609700666752474</v>
+        <v>0.572299566550214</v>
       </c>
       <c r="D23">
-        <v>0.05833934002444607</v>
+        <v>0.02694298315491039</v>
       </c>
       <c r="E23">
-        <v>0.6858341230852432</v>
+        <v>2.568868295859104</v>
       </c>
       <c r="F23">
-        <v>1.880434965373752</v>
+        <v>2.835388458581548</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -1435,7 +1435,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.13407728458003</v>
+        <v>3.419728958072028</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1444,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="N23">
-        <v>2.257074770686287</v>
+        <v>1.704958962862776</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,19 +1455,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.9525803342697827</v>
+        <v>2.530462640430699</v>
       </c>
       <c r="C24">
-        <v>0.1389480757355841</v>
+        <v>0.4790453810029476</v>
       </c>
       <c r="D24">
-        <v>0.05887131152912239</v>
+        <v>0.02992884981975408</v>
       </c>
       <c r="E24">
-        <v>0.5876438076756756</v>
+        <v>2.128811439272454</v>
       </c>
       <c r="F24">
-        <v>1.801039480657337</v>
+        <v>2.458262280991192</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -1482,7 +1482,7 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.004906776677416</v>
+        <v>2.871098795154126</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1491,7 +1491,7 @@
         <v>0</v>
       </c>
       <c r="N24">
-        <v>2.246700530617062</v>
+        <v>1.644777772694965</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,19 +1502,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.833085476985957</v>
+        <v>2.036793853125118</v>
       </c>
       <c r="C25">
-        <v>0.1153751661600779</v>
+        <v>0.383357501817585</v>
       </c>
       <c r="D25">
-        <v>0.05946824915568172</v>
+        <v>0.03334206868692924</v>
       </c>
       <c r="E25">
-        <v>0.482497090717203</v>
+        <v>1.686043630832089</v>
       </c>
       <c r="F25">
-        <v>1.718936341768085</v>
+        <v>2.079447485959577</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -1529,7 +1529,7 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.8674377740416048</v>
+        <v>2.306052886172438</v>
       </c>
       <c r="L25">
         <v>0</v>
@@ -1538,7 +1538,7 @@
         <v>0</v>
       </c>
       <c r="N25">
-        <v>2.237902927038164</v>
+        <v>1.594281232783786</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_5_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1132 +415,1282 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.687334323027613</v>
+        <v>3.356943904116406</v>
       </c>
       <c r="C2">
-        <v>0.3158231817094759</v>
+        <v>0.8148633574967334</v>
       </c>
       <c r="D2">
-        <v>0.03598047165995055</v>
+        <v>0.008955885077345016</v>
       </c>
       <c r="E2">
-        <v>1.378735620429495</v>
+        <v>0.01522945630749362</v>
       </c>
       <c r="F2">
-        <v>1.818566633987459</v>
+        <v>3.03570907388054</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01450018887447074</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.01761797894111661</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K2">
-        <v>1.906300860356083</v>
+        <v>1.69645871211317</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.05116004845800681</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>1.566914155140822</v>
+        <v>0.3294935152127465</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.456929535887923</v>
+        <v>2.933069761491652</v>
       </c>
       <c r="C3">
-        <v>0.2713488772405981</v>
+        <v>0.7060923282320175</v>
       </c>
       <c r="D3">
-        <v>0.03783207682010392</v>
+        <v>0.007596800450205166</v>
       </c>
       <c r="E3">
-        <v>1.178677952126648</v>
+        <v>0.01341235951632247</v>
       </c>
       <c r="F3">
-        <v>1.650534748040428</v>
+        <v>2.78693616897408</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>0.02036570598667864</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.02425988334375084</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K3">
-        <v>1.642787637872118</v>
+        <v>1.576974447028945</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.04603757195834746</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
       <c r="N3">
-        <v>1.553425084926218</v>
+        <v>0.290418496763948</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.317971546463866</v>
+        <v>2.673696149766215</v>
       </c>
       <c r="C4">
-        <v>0.2445318155072869</v>
+        <v>0.6402041758725545</v>
       </c>
       <c r="D4">
-        <v>0.03899659880035777</v>
+        <v>0.006767563403986543</v>
       </c>
       <c r="E4">
-        <v>1.058939352742215</v>
+        <v>0.01232933141841897</v>
       </c>
       <c r="F4">
-        <v>1.550983314693752</v>
+        <v>2.634536694962407</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>0.02458779884508111</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.02904568429126986</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K4">
-        <v>1.483860186643142</v>
+        <v>1.503403843629584</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.04291159885517359</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.547335959216454</v>
+        <v>0.2666076718728903</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.261888960687202</v>
+        <v>2.568194327522349</v>
       </c>
       <c r="C5">
-        <v>0.2337073438175281</v>
+        <v>0.614128725178432</v>
       </c>
       <c r="D5">
-        <v>0.03947763304861418</v>
+        <v>0.006360266244520574</v>
       </c>
       <c r="E5">
-        <v>1.010799284049313</v>
+        <v>0.0118924814042779</v>
       </c>
       <c r="F5">
-        <v>1.511231759725419</v>
+        <v>2.567867048585157</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>0.02647135013867197</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.03127273150699628</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K5">
-        <v>1.41971413606484</v>
+        <v>1.470086394250316</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.04157812204671529</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>1.54536570798281</v>
+        <v>0.2571881655604642</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.252606928878976</v>
+        <v>2.550705935772669</v>
       </c>
       <c r="C6">
-        <v>0.2319156738832504</v>
+        <v>0.6105137485041894</v>
       </c>
       <c r="D6">
-        <v>0.03955788775477664</v>
+        <v>0.006207764973300556</v>
       </c>
       <c r="E6">
-        <v>1.002841794101158</v>
+        <v>0.01181760553562999</v>
       </c>
       <c r="F6">
-        <v>1.504677766651398</v>
+        <v>2.551162849458109</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>0.02681082223065356</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.03179157226762896</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K6">
-        <v>1.40909721634776</v>
+        <v>1.460560488294362</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.04128141021056386</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>1.545068307911535</v>
+        <v>0.2559252157800813</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.317213104858666</v>
+        <v>2.672317887515248</v>
       </c>
       <c r="C7">
-        <v>0.2443854375757297</v>
+        <v>0.6417753214585957</v>
       </c>
       <c r="D7">
-        <v>0.03900306051028046</v>
+        <v>0.00652847319886618</v>
       </c>
       <c r="E7">
-        <v>1.05828762435651</v>
+        <v>0.0123158971105396</v>
       </c>
       <c r="F7">
-        <v>1.550444023647728</v>
+        <v>2.618214576410125</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>0.02465893739356506</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.02943331749201761</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K7">
-        <v>1.482992717795867</v>
+        <v>1.492036445727379</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.04268622045689696</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>1.547307368931698</v>
+        <v>0.2672986733646212</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.607314148624795</v>
+        <v>3.210588723902902</v>
       </c>
       <c r="C8">
-        <v>0.3003742531556384</v>
+        <v>0.7797142560087025</v>
       </c>
       <c r="D8">
-        <v>0.03661286569075983</v>
+        <v>0.00817208708724948</v>
       </c>
       <c r="E8">
-        <v>1.309033471362596</v>
+        <v>0.01458457612195196</v>
       </c>
       <c r="F8">
-        <v>1.759818365561216</v>
+        <v>2.929315214232389</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.01643767003676699</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.020172045483279</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K8">
-        <v>1.814780130591657</v>
+        <v>1.640768528879136</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.04910736796233905</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>1.561782416116586</v>
+        <v>0.3170708042563319</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>2.200567050836526</v>
+        <v>4.275432328367287</v>
       </c>
       <c r="C9">
-        <v>0.4150585586920101</v>
+        <v>1.05511455226889</v>
       </c>
       <c r="D9">
-        <v>0.03217057169997517</v>
+        <v>0.01190476616279312</v>
       </c>
       <c r="E9">
-        <v>1.8317679377475</v>
+        <v>0.01938083888226672</v>
       </c>
       <c r="F9">
-        <v>2.203885024982313</v>
+        <v>3.572010365343004</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>0.005554936312173964</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.007541829793369814</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K9">
-        <v>2.493453547601518</v>
+        <v>1.951404094738322</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.06236334359558882</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>1.609610202573307</v>
+        <v>0.4149249305779676</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>2.658337307291276</v>
+        <v>5.06624590545897</v>
       </c>
       <c r="C10">
-        <v>0.5039014267358084</v>
+        <v>1.264789054307073</v>
       </c>
       <c r="D10">
-        <v>0.02910095633844811</v>
+        <v>0.01428767767621508</v>
       </c>
       <c r="E10">
-        <v>2.245264353361549</v>
+        <v>0.02308233710606766</v>
       </c>
       <c r="F10">
-        <v>2.558100619954644</v>
+        <v>3.962345130223468</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>0.001663733785435273</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.002839641166840323</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K10">
-        <v>3.017547586819319</v>
+        <v>2.12520517559922</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.07018824449271399</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.659839452394763</v>
+        <v>0.4776156495323391</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>2.873207500963815</v>
+        <v>5.422615873962798</v>
       </c>
       <c r="C11">
-        <v>0.545742607557969</v>
+        <v>1.359838643867249</v>
       </c>
       <c r="D11">
-        <v>0.02776013550431067</v>
+        <v>0.0122858438025446</v>
       </c>
       <c r="E11">
-        <v>2.442666926975505</v>
+        <v>0.02532679521852899</v>
       </c>
       <c r="F11">
-        <v>2.72730646261337</v>
+        <v>3.446343122658504</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>0.01994293651877754</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.002661887141679919</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K11">
-        <v>3.263721458275256</v>
+        <v>1.775959297935231</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.06178568052197764</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>1.686824214375974</v>
+        <v>0.4145650378766277</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>2.955709622996892</v>
+        <v>5.555453492648667</v>
       </c>
       <c r="C12">
-        <v>0.5618346033103876</v>
+        <v>1.392071715436259</v>
       </c>
       <c r="D12">
-        <v>0.02726187123010249</v>
+        <v>0.01077964730206205</v>
       </c>
       <c r="E12">
-        <v>2.519052611227806</v>
+        <v>0.02865753299651708</v>
       </c>
       <c r="F12">
-        <v>2.792737534030096</v>
+        <v>2.983177636354299</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>0.05873250233188543</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.002616862655896668</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>0.0267246236506935</v>
       </c>
       <c r="K12">
-        <v>3.358276179728762</v>
+        <v>1.488411206298238</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.06277873988755722</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
       <c r="N12">
-        <v>1.697722311885144</v>
+        <v>0.3512763746426373</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>2.937887606582194</v>
+        <v>5.522447683586563</v>
       </c>
       <c r="C13">
-        <v>0.5583571357422841</v>
+        <v>1.380341997178107</v>
       </c>
       <c r="D13">
-        <v>0.02736873252170291</v>
+        <v>0.009130264544861433</v>
       </c>
       <c r="E13">
-        <v>2.502523613361703</v>
+        <v>0.03290071972000774</v>
       </c>
       <c r="F13">
-        <v>2.778582004248875</v>
+        <v>2.511520147556055</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>0.1149835708086044</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.003045124681574585</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K13">
-        <v>3.337848954349681</v>
+        <v>1.215508457122127</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.0705775690958319</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>1.695343492079502</v>
+        <v>0.286016589596116</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>2.879971098703663</v>
+        <v>5.424487095558845</v>
       </c>
       <c r="C14">
-        <v>0.5470612734314955</v>
+        <v>1.352993829766774</v>
       </c>
       <c r="D14">
-        <v>0.02771894335071678</v>
+        <v>0.007900527208587249</v>
       </c>
       <c r="E14">
-        <v>2.448916587668322</v>
+        <v>0.03652767849486516</v>
       </c>
       <c r="F14">
-        <v>2.732661099525558</v>
+        <v>2.181257335641078</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>0.1649207088041464</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.003745296573221424</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K14">
-        <v>3.271472424610465</v>
+        <v>1.034011492137928</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.08030800721577336</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>1.687706654110599</v>
+        <v>0.2407774771842668</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>2.844649325481612</v>
+        <v>5.365382475543754</v>
       </c>
       <c r="C15">
-        <v>0.5401758659870382</v>
+        <v>1.337846873462752</v>
       </c>
       <c r="D15">
-        <v>0.02793474155522446</v>
+        <v>0.007482326335162881</v>
       </c>
       <c r="E15">
-        <v>2.416303215658345</v>
+        <v>0.03729498397532716</v>
       </c>
       <c r="F15">
-        <v>2.704716204171234</v>
+        <v>2.09163508233172</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>0.1777259428504863</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.004207968119390948</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K15">
-        <v>3.230995667090212</v>
+        <v>0.9872301977781817</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.08294103988719925</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>1.683120114910366</v>
+        <v>0.2291130905185383</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>2.644443372127228</v>
+        <v>5.030315001577492</v>
       </c>
       <c r="C16">
-        <v>0.5011991886909755</v>
+        <v>1.250281169436278</v>
       </c>
       <c r="D16">
-        <v>0.02918981960729639</v>
+        <v>0.006612754505795237</v>
       </c>
       <c r="E16">
-        <v>2.23257488484191</v>
+        <v>0.03461839726657168</v>
       </c>
       <c r="F16">
-        <v>2.547221106709287</v>
+        <v>2.023494322079117</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>0.1666118247144794</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.006115505856373105</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K16">
-        <v>3.001633592696237</v>
+        <v>0.9695249836006354</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.07789822619082543</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>1.658166110976353</v>
+        <v>0.2180991480473295</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:15">
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2.523442415907709</v>
+        <v>4.826116246556239</v>
       </c>
       <c r="C17">
-        <v>0.4776817173526808</v>
+        <v>1.198041893484799</v>
       </c>
       <c r="D17">
-        <v>0.02997495507590386</v>
+        <v>0.006577325607430851</v>
       </c>
       <c r="E17">
-        <v>2.122439939875264</v>
+        <v>0.03049197564814499</v>
       </c>
       <c r="F17">
-        <v>2.452800493488866</v>
+        <v>2.141077661720345</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>0.1298313515797105</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.007296387912237634</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K17">
-        <v>2.863059993437361</v>
+        <v>1.048182202289794</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.06803318681515691</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>1.64397320761411</v>
+        <v>0.2329011879076148</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:15">
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>2.454457342657804</v>
+        <v>4.709932188705977</v>
       </c>
       <c r="C18">
-        <v>0.4642864061001433</v>
+        <v>1.167960864881707</v>
       </c>
       <c r="D18">
-        <v>0.03043166746613934</v>
+        <v>0.007504355463439083</v>
       </c>
       <c r="E18">
-        <v>2.059948097781771</v>
+        <v>0.02567926700206069</v>
       </c>
       <c r="F18">
-        <v>2.399238648568343</v>
+        <v>2.458310216754484</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>0.07719797327182931</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.007332405794008068</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K18">
-        <v>2.784071757744812</v>
+        <v>1.239151590316609</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.05728284473866552</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
       <c r="N18">
-        <v>1.636193268601815</v>
+        <v>0.2735704872363272</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:15">
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>2.43120008837019</v>
+        <v>4.672327952238788</v>
       </c>
       <c r="C19">
-        <v>0.459772349428448</v>
+        <v>1.161548138076341</v>
       </c>
       <c r="D19">
-        <v>0.03058714241403671</v>
+        <v>0.009079174872702822</v>
       </c>
       <c r="E19">
-        <v>2.038928092184648</v>
+        <v>0.02215235463785348</v>
       </c>
       <c r="F19">
-        <v>2.381226227933553</v>
+        <v>2.91849753424475</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>0.03125504597314688</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.006943706984359643</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K19">
-        <v>2.757444499958012</v>
+        <v>1.514273664181161</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.0533724990255573</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>1.63362259140294</v>
+        <v>0.3375619525148466</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:15">
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>2.536258655485824</v>
+        <v>4.857550841052728</v>
       </c>
       <c r="C20">
-        <v>0.4801713148882527</v>
+        <v>1.215259901296349</v>
       </c>
       <c r="D20">
-        <v>0.02989083613008425</v>
+        <v>0.01290002232152432</v>
       </c>
       <c r="E20">
-        <v>2.134073543233725</v>
+        <v>0.02204520258958975</v>
       </c>
       <c r="F20">
-        <v>2.462773155332044</v>
+        <v>3.807535219180551</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>0.002451332248271321</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.004659417790199072</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K20">
-        <v>2.877735851127568</v>
+        <v>2.043192601996154</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.06733955952710247</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.645443807476383</v>
+        <v>0.4632054708181812</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:15">
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>2.896950171240235</v>
+        <v>5.469173141270176</v>
       </c>
       <c r="C21">
-        <v>0.5503720464660375</v>
+        <v>1.37857812689947</v>
       </c>
       <c r="D21">
-        <v>0.02761580721032431</v>
+        <v>0.01548548274246997</v>
       </c>
       <c r="E21">
-        <v>2.464615296870548</v>
+        <v>0.02523300430412212</v>
       </c>
       <c r="F21">
-        <v>2.746110655046692</v>
+        <v>4.2438471297028</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>0.0003408741530490644</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.002253462252176597</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K21">
-        <v>3.290930706479344</v>
+        <v>2.261499548060513</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.0769826178576416</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>1.689930592462957</v>
+        <v>0.528549221504818</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:15">
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.139407382965885</v>
+        <v>5.871703793496408</v>
       </c>
       <c r="C22">
-        <v>0.5977209195003752</v>
+        <v>1.484421945981126</v>
       </c>
       <c r="D22">
-        <v>0.02618513234394193</v>
+        <v>0.01735473321189929</v>
       </c>
       <c r="E22">
-        <v>2.690345768122171</v>
+        <v>0.02735793266575115</v>
       </c>
       <c r="F22">
-        <v>2.939308891364448</v>
+        <v>4.511125808246277</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.657810194151011E-08</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.001428083994217566</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K22">
-        <v>3.568880571289981</v>
+        <v>2.39410017750744</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.08263499199191493</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>1.723015821389879</v>
+        <v>0.5649229295353706</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:15">
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.009320173134938</v>
+        <v>5.656735199072216</v>
       </c>
       <c r="C23">
-        <v>0.572299566550214</v>
+        <v>1.42543422164573</v>
       </c>
       <c r="D23">
-        <v>0.02694298315491039</v>
+        <v>0.01663469372253701</v>
       </c>
       <c r="E23">
-        <v>2.568868295859104</v>
+        <v>0.02622624155566355</v>
       </c>
       <c r="F23">
-        <v>2.835388458581548</v>
+        <v>4.386824866466355</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>9.219942236482481E-05</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.001450999246042528</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K23">
-        <v>3.419728958072028</v>
+        <v>2.336371538635547</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.07987537507373155</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
       <c r="N23">
-        <v>1.704958962862776</v>
+        <v>0.5444672318835586</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:15">
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>2.530462640430699</v>
+        <v>4.848201661480402</v>
       </c>
       <c r="C24">
-        <v>0.4790453810029476</v>
+        <v>1.209530803686619</v>
       </c>
       <c r="D24">
-        <v>0.02992884981975408</v>
+        <v>0.01356130999512573</v>
       </c>
       <c r="E24">
-        <v>2.128811439272454</v>
+        <v>0.02211880858824444</v>
       </c>
       <c r="F24">
-        <v>2.458262280991192</v>
+        <v>3.891838088413749</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>0.002234525812439658</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.004079315176918286</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K24">
-        <v>2.871098795154126</v>
+        <v>2.098843455164683</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.06927597234534311</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>1.644777772694965</v>
+        <v>0.4694075004023261</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:15">
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>2.036793853125118</v>
+        <v>3.985944036844671</v>
       </c>
       <c r="C25">
-        <v>0.383357501817585</v>
+        <v>0.9830465940149793</v>
       </c>
       <c r="D25">
-        <v>0.03334206868692924</v>
+        <v>0.01044975847592511</v>
       </c>
       <c r="E25">
-        <v>1.686043630832089</v>
+        <v>0.01802090383103144</v>
       </c>
       <c r="F25">
-        <v>2.079447485959577</v>
+        <v>3.369127875065288</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>0.007919870144506846</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.01078135363071109</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>0.02672462365057982</v>
       </c>
       <c r="K25">
-        <v>2.306052886172438</v>
+        <v>1.847374674435002</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.05833353520796081</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>1.594281232783786</v>
+        <v>0.3897335975727145</v>
       </c>
       <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_5_60/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_5_60/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.356943904116406</v>
+        <v>3.359145807411153</v>
       </c>
       <c r="C2">
-        <v>0.8148633574967334</v>
+        <v>0.9280439461261949</v>
       </c>
       <c r="D2">
-        <v>0.008955885077345016</v>
+        <v>0.002149747832058679</v>
       </c>
       <c r="E2">
-        <v>0.01522945630749362</v>
+        <v>0.01675360382871549</v>
       </c>
       <c r="F2">
-        <v>3.03570907388054</v>
+        <v>2.201411485530059</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.01450018887447074</v>
+        <v>0.01097875926209484</v>
       </c>
       <c r="I2">
-        <v>0.01761797894111661</v>
+        <v>0.01209518289648148</v>
       </c>
       <c r="J2">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153801</v>
       </c>
       <c r="K2">
-        <v>1.69645871211317</v>
+        <v>1.107025189762865</v>
       </c>
       <c r="L2">
-        <v>0.05116004845800681</v>
+        <v>0.4456915931897001</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>0.384244544839099</v>
       </c>
       <c r="N2">
-        <v>0.3294935152127465</v>
+        <v>0.04275335069655117</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.3872874696644999</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>2.933069761491652</v>
+        <v>2.931524417770504</v>
       </c>
       <c r="C3">
-        <v>0.7060923282320175</v>
+        <v>0.8026860839154324</v>
       </c>
       <c r="D3">
-        <v>0.007596800450205166</v>
+        <v>0.001757382195141766</v>
       </c>
       <c r="E3">
-        <v>0.01341235951632247</v>
+        <v>0.01500245178790827</v>
       </c>
       <c r="F3">
-        <v>2.78693616897408</v>
+        <v>2.060130274969964</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0.02036570598667864</v>
+        <v>0.01559067958995247</v>
       </c>
       <c r="I3">
-        <v>0.02425988334375084</v>
+        <v>0.01684397120603265</v>
       </c>
       <c r="J3">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153705</v>
       </c>
       <c r="K3">
-        <v>1.576974447028945</v>
+        <v>1.059420662881863</v>
       </c>
       <c r="L3">
-        <v>0.04603757195834746</v>
+        <v>0.4354904404922095</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>0.3601851052819285</v>
       </c>
       <c r="N3">
-        <v>0.290418496763948</v>
+        <v>0.03908624443353537</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>0.3413465750318494</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.673696149766215</v>
+        <v>2.669359600419511</v>
       </c>
       <c r="C4">
-        <v>0.6402041758725545</v>
+        <v>0.7266858787525905</v>
       </c>
       <c r="D4">
-        <v>0.006767563403986543</v>
+        <v>0.001535197841392666</v>
       </c>
       <c r="E4">
-        <v>0.01232933141841897</v>
+        <v>0.01395020752525161</v>
       </c>
       <c r="F4">
-        <v>2.634536694962407</v>
+        <v>1.973387539239013</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.02458779884508111</v>
+        <v>0.01892843234666253</v>
       </c>
       <c r="I4">
-        <v>0.02904568429126986</v>
+        <v>0.0203072328704712</v>
       </c>
       <c r="J4">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153784</v>
       </c>
       <c r="K4">
-        <v>1.503403843629584</v>
+        <v>1.029882510397798</v>
       </c>
       <c r="L4">
-        <v>0.04291159885517359</v>
+        <v>0.4286568202129715</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.3463340250653317</v>
       </c>
       <c r="N4">
-        <v>0.2666076718728903</v>
+        <v>0.03683884794791492</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.31335382981419</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.568194327522349</v>
+        <v>2.562596681642447</v>
       </c>
       <c r="C5">
-        <v>0.614128725178432</v>
+        <v>0.6964405518818353</v>
       </c>
       <c r="D5">
-        <v>0.006360266244520574</v>
+        <v>0.001435311558182661</v>
       </c>
       <c r="E5">
-        <v>0.0118924814042779</v>
+        <v>0.01352393134201357</v>
       </c>
       <c r="F5">
-        <v>2.567867048585157</v>
+        <v>1.934829426999656</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.02647135013867197</v>
+        <v>0.02042058013854053</v>
       </c>
       <c r="I5">
-        <v>0.03127273150699628</v>
+        <v>0.02196330623684428</v>
       </c>
       <c r="J5">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459153798</v>
       </c>
       <c r="K5">
-        <v>1.470086394250316</v>
+        <v>1.015670767028688</v>
       </c>
       <c r="L5">
-        <v>0.04157812204671529</v>
+        <v>0.4248645562557698</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.3402163234667483</v>
       </c>
       <c r="N5">
-        <v>0.2571881655604642</v>
+        <v>0.03588940190881384</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>0.3022085905245575</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.550705935772669</v>
+        <v>2.544878720056147</v>
       </c>
       <c r="C6">
-        <v>0.6105137485041894</v>
+        <v>0.6920511468837276</v>
       </c>
       <c r="D6">
-        <v>0.006207764973300556</v>
+        <v>0.001403266047258711</v>
       </c>
       <c r="E6">
-        <v>0.01181760553562999</v>
+        <v>0.01345094486831033</v>
       </c>
       <c r="F6">
-        <v>2.551162849458109</v>
+        <v>1.92453348715047</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.02681082223065356</v>
+        <v>0.02068872045147974</v>
       </c>
       <c r="I6">
-        <v>0.03179157226762896</v>
+        <v>0.02239389711028572</v>
       </c>
       <c r="J6">
-        <v>0.0267246236506935</v>
+        <v>0.07607150459142333</v>
       </c>
       <c r="K6">
-        <v>1.460560488294362</v>
+        <v>1.01075726851419</v>
       </c>
       <c r="L6">
-        <v>0.04128141021056386</v>
+        <v>0.4231737204905244</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>0.3383613919850745</v>
       </c>
       <c r="N6">
-        <v>0.2559252157800813</v>
+        <v>0.03569170036483449</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>0.3006227766714176</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.672317887515248</v>
+        <v>2.667930247800939</v>
       </c>
       <c r="C7">
-        <v>0.6417753214585957</v>
+        <v>0.7279746170455041</v>
       </c>
       <c r="D7">
-        <v>0.00652847319886618</v>
+        <v>0.001492015069226582</v>
       </c>
       <c r="E7">
-        <v>0.0123158971105396</v>
+        <v>0.01393770264528682</v>
       </c>
       <c r="F7">
-        <v>2.618214576410125</v>
+        <v>1.962252469720923</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.02465893739356506</v>
+        <v>0.01898197910656696</v>
       </c>
       <c r="I7">
-        <v>0.02943331749201761</v>
+        <v>0.02070980289528812</v>
       </c>
       <c r="J7">
-        <v>0.0267246236506935</v>
+        <v>0.07593571568737367</v>
       </c>
       <c r="K7">
-        <v>1.492036445727379</v>
+        <v>1.022748066401689</v>
       </c>
       <c r="L7">
-        <v>0.04268622045689696</v>
+        <v>0.4257737534056005</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>0.3438919861438734</v>
       </c>
       <c r="N7">
-        <v>0.2672986733646212</v>
+        <v>0.03671705659697633</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>0.313921234157462</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.210588723902902</v>
+        <v>3.211575043426933</v>
       </c>
       <c r="C8">
-        <v>0.7797142560087025</v>
+        <v>0.88686548713261</v>
       </c>
       <c r="D8">
-        <v>0.00817208708724948</v>
+        <v>0.001960884814702801</v>
       </c>
       <c r="E8">
-        <v>0.01458457612195196</v>
+        <v>0.01613501522273375</v>
       </c>
       <c r="F8">
-        <v>2.929315214232389</v>
+        <v>2.138702029426071</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.01643767003676699</v>
+        <v>0.01249507568954814</v>
       </c>
       <c r="I8">
-        <v>0.020172045483279</v>
+        <v>0.0140625344252312</v>
       </c>
       <c r="J8">
-        <v>0.0267246236506935</v>
+        <v>0.07609806137284103</v>
       </c>
       <c r="K8">
-        <v>1.640768528879136</v>
+        <v>1.081568792867465</v>
       </c>
       <c r="L8">
-        <v>0.04910736796233905</v>
+        <v>0.4387231789248958</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.3725131118327383</v>
       </c>
       <c r="N8">
-        <v>0.3170708042563319</v>
+        <v>0.04134350386609675</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>0.3723582702875063</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>4.275432328367287</v>
+        <v>4.282571785237565</v>
       </c>
       <c r="C9">
-        <v>1.05511455226889</v>
+        <v>1.204295193105281</v>
       </c>
       <c r="D9">
-        <v>0.01190476616279312</v>
+        <v>0.003134343954575236</v>
       </c>
       <c r="E9">
-        <v>0.01938083888226672</v>
+        <v>0.02069933811111691</v>
       </c>
       <c r="F9">
-        <v>3.572010365343004</v>
+        <v>2.504914705539207</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.005554936312173964</v>
+        <v>0.004038547197465769</v>
       </c>
       <c r="I9">
-        <v>0.007541829793369814</v>
+        <v>0.005132357933818277</v>
       </c>
       <c r="J9">
-        <v>0.0267246236506935</v>
+        <v>0.07618838127587857</v>
       </c>
       <c r="K9">
-        <v>1.951404094738322</v>
+        <v>1.20721475632746</v>
       </c>
       <c r="L9">
-        <v>0.06236334359558882</v>
+        <v>0.4644026986461327</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>0.4407586445145881</v>
       </c>
       <c r="N9">
-        <v>0.4149249305779676</v>
+        <v>0.05073202984568148</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>0.4876507981471008</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.06624590545897</v>
+        <v>5.074479223276114</v>
       </c>
       <c r="C10">
-        <v>1.264789054307073</v>
+        <v>1.442608471818971</v>
       </c>
       <c r="D10">
-        <v>0.01428767767621508</v>
+        <v>0.004200440232808411</v>
       </c>
       <c r="E10">
-        <v>0.02308233710606766</v>
+        <v>0.02413525506429492</v>
       </c>
       <c r="F10">
-        <v>3.962345130223468</v>
+        <v>2.721232549301334</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.001663733785435273</v>
+        <v>0.00116125478052842</v>
       </c>
       <c r="I10">
-        <v>0.002839641166840323</v>
+        <v>0.002113645392256558</v>
       </c>
       <c r="J10">
-        <v>0.0267246236506935</v>
+        <v>0.07897366448939458</v>
       </c>
       <c r="K10">
-        <v>2.12520517559922</v>
+        <v>1.268392369737143</v>
       </c>
       <c r="L10">
-        <v>0.07018824449271399</v>
+        <v>0.4696893369437447</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>0.484109532799998</v>
       </c>
       <c r="N10">
-        <v>0.4776156495323391</v>
+        <v>0.05689466006783217</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>0.5612703816874642</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.422615873962798</v>
+        <v>5.431343024973785</v>
       </c>
       <c r="C11">
-        <v>1.359838643867249</v>
+        <v>1.528991238741185</v>
       </c>
       <c r="D11">
-        <v>0.0122858438025446</v>
+        <v>0.005093102531108507</v>
       </c>
       <c r="E11">
-        <v>0.02532679521852899</v>
+        <v>0.0260893095892305</v>
       </c>
       <c r="F11">
-        <v>3.446343122658504</v>
+        <v>2.383043858077599</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.01994293651877754</v>
+        <v>0.01950656063662848</v>
       </c>
       <c r="I11">
-        <v>0.002661887141679919</v>
+        <v>0.002294048432311513</v>
       </c>
       <c r="J11">
-        <v>0.0267246236506935</v>
+        <v>0.09407249181950306</v>
       </c>
       <c r="K11">
-        <v>1.775959297935231</v>
+        <v>1.061705217950198</v>
       </c>
       <c r="L11">
-        <v>0.06178568052197764</v>
+        <v>0.3893773804638556</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>0.4112395890867049</v>
       </c>
       <c r="N11">
-        <v>0.4145650378766277</v>
+        <v>0.05805587133194656</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>0.4863233056538832</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.555453492648667</v>
+        <v>5.564657527884151</v>
       </c>
       <c r="C12">
-        <v>1.392071715436259</v>
+        <v>1.547571584019636</v>
       </c>
       <c r="D12">
-        <v>0.01077964730206205</v>
+        <v>0.005665297382487999</v>
       </c>
       <c r="E12">
-        <v>0.02865753299651708</v>
+        <v>0.02926858204821592</v>
       </c>
       <c r="F12">
-        <v>2.983177636354299</v>
+        <v>2.085646556180748</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.05873250233188543</v>
+        <v>0.05824353088218004</v>
       </c>
       <c r="I12">
-        <v>0.002616862655896668</v>
+        <v>0.002244719229005376</v>
       </c>
       <c r="J12">
-        <v>0.0267246236506935</v>
+        <v>0.1054405423656988</v>
       </c>
       <c r="K12">
-        <v>1.488411206298238</v>
+        <v>0.8996407938112014</v>
       </c>
       <c r="L12">
-        <v>0.06277873988755722</v>
+        <v>0.3306377652743606</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.349181933509108</v>
       </c>
       <c r="N12">
-        <v>0.3512763746426373</v>
+        <v>0.06597888396478879</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>0.4116611355017028</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.522447683586563</v>
+        <v>5.5321270279386</v>
       </c>
       <c r="C13">
-        <v>1.380341997178107</v>
+        <v>1.517284275098575</v>
       </c>
       <c r="D13">
-        <v>0.009130264544861433</v>
+        <v>0.005922331141630099</v>
       </c>
       <c r="E13">
-        <v>0.03290071972000774</v>
+        <v>0.03346501723421014</v>
       </c>
       <c r="F13">
-        <v>2.511520147556055</v>
+        <v>1.786084519800326</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.1149835708086044</v>
+        <v>0.1143207033717601</v>
       </c>
       <c r="I13">
-        <v>0.003045124681574585</v>
+        <v>0.002444331297201785</v>
       </c>
       <c r="J13">
-        <v>0.02672462365057982</v>
+        <v>0.102658464312043</v>
       </c>
       <c r="K13">
-        <v>1.215508457122127</v>
+        <v>0.7514863070990927</v>
       </c>
       <c r="L13">
-        <v>0.0705775690958319</v>
+        <v>0.2799247892148813</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>0.2886051181874763</v>
       </c>
       <c r="N13">
-        <v>0.286016589596116</v>
+        <v>0.0790788652115495</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>0.3347559980305164</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.424487095558845</v>
+        <v>5.4343708449465</v>
       </c>
       <c r="C14">
-        <v>1.352993829766774</v>
+        <v>1.474689440119448</v>
       </c>
       <c r="D14">
-        <v>0.007900527208587249</v>
+        <v>0.005946058053740266</v>
       </c>
       <c r="E14">
-        <v>0.03652767849486516</v>
+        <v>0.03711153692992752</v>
       </c>
       <c r="F14">
-        <v>2.181257335641078</v>
+        <v>1.576791031952794</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.1649207088041464</v>
+        <v>0.1640624475869998</v>
       </c>
       <c r="I14">
-        <v>0.003745296573221424</v>
+        <v>0.002867630782549924</v>
       </c>
       <c r="J14">
-        <v>0.02672462365057982</v>
+        <v>0.09486545036309479</v>
       </c>
       <c r="K14">
-        <v>1.034011492137928</v>
+        <v>0.6550391410968643</v>
       </c>
       <c r="L14">
-        <v>0.08030800721577336</v>
+        <v>0.2478900967791091</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>0.2477954569100049</v>
       </c>
       <c r="N14">
-        <v>0.2407774771842668</v>
+        <v>0.09151951217965859</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>0.2814513954190829</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.365382475543754</v>
+        <v>5.375261076204936</v>
       </c>
       <c r="C15">
-        <v>1.337846873462752</v>
+        <v>1.454788884114123</v>
       </c>
       <c r="D15">
-        <v>0.007482326335162881</v>
+        <v>0.005882274252631214</v>
       </c>
       <c r="E15">
-        <v>0.03729498397532716</v>
+        <v>0.03790202251096808</v>
       </c>
       <c r="F15">
-        <v>2.09163508233172</v>
+        <v>1.520507238334119</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1777259428504863</v>
+        <v>0.1767761875062632</v>
       </c>
       <c r="I15">
-        <v>0.004207968119390948</v>
+        <v>0.003215837308042424</v>
       </c>
       <c r="J15">
-        <v>0.02672462365057982</v>
+        <v>0.09097538657191606</v>
       </c>
       <c r="K15">
-        <v>0.9872301977781817</v>
+        <v>0.6310398186629342</v>
       </c>
       <c r="L15">
-        <v>0.08294103988719925</v>
+        <v>0.240249306006465</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>0.2371368546693589</v>
       </c>
       <c r="N15">
-        <v>0.2291130905185383</v>
+        <v>0.0946148934601112</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>0.2676607195495677</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.030315001577492</v>
+        <v>5.039640945061308</v>
       </c>
       <c r="C16">
-        <v>1.250281169436278</v>
+        <v>1.358894540521931</v>
       </c>
       <c r="D16">
-        <v>0.006612754505795237</v>
+        <v>0.005222459694960824</v>
       </c>
       <c r="E16">
-        <v>0.03461839726657168</v>
+        <v>0.03536152021482941</v>
       </c>
       <c r="F16">
-        <v>2.023494322079117</v>
+        <v>1.486314068039079</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1666118247144794</v>
+        <v>0.1652143347217105</v>
       </c>
       <c r="I16">
-        <v>0.006115505856373105</v>
+        <v>0.004480866313189225</v>
       </c>
       <c r="J16">
-        <v>0.02672462365057982</v>
+        <v>0.07852597926787475</v>
       </c>
       <c r="K16">
-        <v>0.9695249836006354</v>
+        <v>0.631946898368291</v>
       </c>
       <c r="L16">
-        <v>0.07789822619082543</v>
+        <v>0.2439287899849063</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.2325647243360329</v>
       </c>
       <c r="N16">
-        <v>0.2180991480473295</v>
+        <v>0.08865734038903383</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>0.2547575265308808</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>4.826116246556239</v>
+        <v>4.834892423012548</v>
       </c>
       <c r="C17">
-        <v>1.198041893484799</v>
+        <v>1.308353211509711</v>
       </c>
       <c r="D17">
-        <v>0.006577325607430851</v>
+        <v>0.00473097280652901</v>
       </c>
       <c r="E17">
-        <v>0.03049197564814499</v>
+        <v>0.03132216089771056</v>
       </c>
       <c r="F17">
-        <v>2.141077661720345</v>
+        <v>1.568787031731063</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1298313515797105</v>
+        <v>0.1281891985136809</v>
       </c>
       <c r="I17">
-        <v>0.007296387912237634</v>
+        <v>0.00531034678311304</v>
       </c>
       <c r="J17">
-        <v>0.02672462365057982</v>
+        <v>0.07630534183234516</v>
       </c>
       <c r="K17">
-        <v>1.048182202289794</v>
+        <v>0.6822894953236229</v>
       </c>
       <c r="L17">
-        <v>0.06803318681515691</v>
+        <v>0.2639043717434362</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>0.249509266340759</v>
       </c>
       <c r="N17">
-        <v>0.2329011879076148</v>
+        <v>0.07690194209984824</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>0.272209254451468</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>4.709932188705977</v>
+        <v>4.718355691827981</v>
       </c>
       <c r="C18">
-        <v>1.167960864881707</v>
+        <v>1.288788026654174</v>
       </c>
       <c r="D18">
-        <v>0.007504355463439083</v>
+        <v>0.004314095558827447</v>
       </c>
       <c r="E18">
-        <v>0.02567926700206069</v>
+        <v>0.02658623479396827</v>
       </c>
       <c r="F18">
-        <v>2.458310216754484</v>
+        <v>1.777575856843669</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.07719797327182931</v>
+        <v>0.07554523934171442</v>
       </c>
       <c r="I18">
-        <v>0.007332405794008068</v>
+        <v>0.005248395993001864</v>
       </c>
       <c r="J18">
-        <v>0.02672462365057982</v>
+        <v>0.07595859146309314</v>
       </c>
       <c r="K18">
-        <v>1.239151590316609</v>
+        <v>0.7927366813373737</v>
       </c>
       <c r="L18">
-        <v>0.05728284473866552</v>
+        <v>0.3050069705093179</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>0.2907571246801268</v>
       </c>
       <c r="N18">
-        <v>0.2735704872363272</v>
+        <v>0.06252329863962203</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>0.3202675302224947</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.672327952238788</v>
+        <v>4.680601216869206</v>
       </c>
       <c r="C19">
-        <v>1.161548138076341</v>
+        <v>1.298519634812862</v>
       </c>
       <c r="D19">
-        <v>0.009079174872702822</v>
+        <v>0.003975856404449196</v>
       </c>
       <c r="E19">
-        <v>0.02215235463785348</v>
+        <v>0.02315607056674462</v>
       </c>
       <c r="F19">
-        <v>2.91849753424475</v>
+        <v>2.073335561585466</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.03125504597314688</v>
+        <v>0.02981901745159377</v>
       </c>
       <c r="I19">
-        <v>0.006943706984359643</v>
+        <v>0.005102150328226251</v>
       </c>
       <c r="J19">
-        <v>0.02672462365057982</v>
+        <v>0.07592634768449891</v>
       </c>
       <c r="K19">
-        <v>1.514273664181161</v>
+        <v>0.9464555776299122</v>
       </c>
       <c r="L19">
-        <v>0.0533724990255573</v>
+        <v>0.3612323403922701</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>0.3496002075994724</v>
       </c>
       <c r="N19">
-        <v>0.3375619525148466</v>
+        <v>0.05284598583035738</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>0.3955820742039293</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>4.857550841052728</v>
+        <v>4.865779645180396</v>
       </c>
       <c r="C20">
-        <v>1.215259901296349</v>
+        <v>1.384760092513318</v>
       </c>
       <c r="D20">
-        <v>0.01290002232152432</v>
+        <v>0.003833357931590342</v>
       </c>
       <c r="E20">
-        <v>0.02204520258958975</v>
+        <v>0.02317854779660466</v>
       </c>
       <c r="F20">
-        <v>3.807535219180551</v>
+        <v>2.629692402839922</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.002451332248271321</v>
+        <v>0.001718580653838231</v>
       </c>
       <c r="I20">
-        <v>0.004659417790199072</v>
+        <v>0.003696486990079073</v>
       </c>
       <c r="J20">
-        <v>0.02672462365057982</v>
+        <v>0.07642603823846983</v>
       </c>
       <c r="K20">
-        <v>2.043192601996154</v>
+        <v>1.23038178518533</v>
       </c>
       <c r="L20">
-        <v>0.06733955952710247</v>
+        <v>0.4605135072869757</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>0.4638627133522135</v>
       </c>
       <c r="N20">
-        <v>0.4632054708181812</v>
+        <v>0.05489431393931277</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>0.5435909343025997</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.469173141270176</v>
+        <v>5.476781151405135</v>
       </c>
       <c r="C21">
-        <v>1.37857812689947</v>
+        <v>1.573999896149985</v>
       </c>
       <c r="D21">
-        <v>0.01548548274246997</v>
+        <v>0.004699471377352715</v>
       </c>
       <c r="E21">
-        <v>0.02523300430412212</v>
+        <v>0.02616384420480555</v>
       </c>
       <c r="F21">
-        <v>4.2438471297028</v>
+        <v>2.881896198365041</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.0003408741530490644</v>
+        <v>0.0001782564548249432</v>
       </c>
       <c r="I21">
-        <v>0.002253462252176597</v>
+        <v>0.002246553008006913</v>
       </c>
       <c r="J21">
-        <v>0.02672462365057982</v>
+        <v>0.1039450029752018</v>
       </c>
       <c r="K21">
-        <v>2.261499548060513</v>
+        <v>1.324181038877114</v>
       </c>
       <c r="L21">
-        <v>0.0769826178576416</v>
+        <v>0.4807778190143139</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>0.5170350194890929</v>
       </c>
       <c r="N21">
-        <v>0.528549221504818</v>
+        <v>0.06116664454109966</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>0.620516706478071</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.871703793496408</v>
+        <v>5.877972704100102</v>
       </c>
       <c r="C22">
-        <v>1.484421945981126</v>
+        <v>1.695858579801381</v>
       </c>
       <c r="D22">
-        <v>0.01735473321189929</v>
+        <v>0.005363285764076409</v>
       </c>
       <c r="E22">
-        <v>0.02735793266575115</v>
+        <v>0.02812134460855298</v>
       </c>
       <c r="F22">
-        <v>4.511125808246277</v>
+        <v>3.035875856738528</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>2.657810194151011E-08</v>
+        <v>1.046738315535478E-05</v>
       </c>
       <c r="I22">
-        <v>0.001428083994217566</v>
+        <v>0.001711983366481817</v>
       </c>
       <c r="J22">
-        <v>0.02672462365057982</v>
+        <v>0.1466045079828149</v>
       </c>
       <c r="K22">
-        <v>2.39410017750744</v>
+        <v>1.380446916450609</v>
       </c>
       <c r="L22">
-        <v>0.08263499199191493</v>
+        <v>0.4915667249860078</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>0.551050684556543</v>
       </c>
       <c r="N22">
-        <v>0.5649229295353706</v>
+        <v>0.06504574656943252</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>0.6636069722684823</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.656735199072216</v>
+        <v>5.663789413495977</v>
       </c>
       <c r="C23">
-        <v>1.42543422164573</v>
+        <v>1.628577766114915</v>
       </c>
       <c r="D23">
-        <v>0.01663469372253701</v>
+        <v>0.005026456674706026</v>
       </c>
       <c r="E23">
-        <v>0.02622624155566355</v>
+        <v>0.02707864260470938</v>
       </c>
       <c r="F23">
-        <v>4.386824866466355</v>
+        <v>2.965856333461772</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>9.219942236482481E-05</v>
+        <v>2.996658194787116E-05</v>
       </c>
       <c r="I23">
-        <v>0.001450999246042528</v>
+        <v>0.00154659614104613</v>
       </c>
       <c r="J23">
-        <v>0.02672462365057982</v>
+        <v>0.1149997787805219</v>
       </c>
       <c r="K23">
-        <v>2.336371538635547</v>
+        <v>1.358270298700276</v>
       </c>
       <c r="L23">
-        <v>0.07987537507373155</v>
+        <v>0.4886014827793872</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>0.5359383648031368</v>
       </c>
       <c r="N23">
-        <v>0.5444672318835586</v>
+        <v>0.06309489328453033</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>0.6396832104084353</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>4.848201661480402</v>
+        <v>4.856372936636035</v>
       </c>
       <c r="C24">
-        <v>1.209530803686619</v>
+        <v>1.380917740278562</v>
       </c>
       <c r="D24">
-        <v>0.01356130999512573</v>
+        <v>0.003830882553718773</v>
       </c>
       <c r="E24">
-        <v>0.02211880858824444</v>
+        <v>0.02326867764596174</v>
       </c>
       <c r="F24">
-        <v>3.891838088413749</v>
+        <v>2.684131989852773</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.002234525812439658</v>
+        <v>0.001529826192206762</v>
       </c>
       <c r="I24">
-        <v>0.004079315176918286</v>
+        <v>0.00304589068519423</v>
       </c>
       <c r="J24">
-        <v>0.02672462365057982</v>
+        <v>0.07636882555349711</v>
       </c>
       <c r="K24">
-        <v>2.098843455164683</v>
+        <v>1.262499602249889</v>
       </c>
       <c r="L24">
-        <v>0.06927597234534311</v>
+        <v>0.472295336362194</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>0.4761218897482351</v>
       </c>
       <c r="N24">
-        <v>0.4694075004023261</v>
+        <v>0.05567969342957202</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>0.5513604473886318</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.985944036844671</v>
+        <v>3.991955019728323</v>
       </c>
       <c r="C25">
-        <v>0.9830465940149793</v>
+        <v>1.120404041544191</v>
       </c>
       <c r="D25">
-        <v>0.01044975847592511</v>
+        <v>0.002737134766960914</v>
       </c>
       <c r="E25">
-        <v>0.01802090383103144</v>
+        <v>0.01941631002978983</v>
       </c>
       <c r="F25">
-        <v>3.369127875065288</v>
+        <v>2.386545202331348</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.007919870144506846</v>
+        <v>0.005852424286852065</v>
       </c>
       <c r="I25">
-        <v>0.01078135363071109</v>
+        <v>0.007596830492781592</v>
       </c>
       <c r="J25">
-        <v>0.02672462365057982</v>
+        <v>0.0759519602266292</v>
       </c>
       <c r="K25">
-        <v>1.847374674435002</v>
+        <v>1.161100479481647</v>
       </c>
       <c r="L25">
-        <v>0.05833353520796081</v>
+        <v>0.4533428985400221</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>0.4168159561734797</v>
       </c>
       <c r="N25">
-        <v>0.3897335975727145</v>
+        <v>0.04797134771007272</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>0.4575322056769977</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
